--- a/HW1/HW1-SysBenchReadings.xlsx
+++ b/HW1/HW1-SysBenchReadings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE74E8CB-3544-430E-AEAB-3EE54534663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC3BCA7-2B07-4E16-B861-3DB572E1DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QEMU" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="35">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -134,6 +134,9 @@
     <t>Fast VM</t>
   </si>
   <si>
+    <t>docker</t>
+  </si>
+  <si>
     <t>Encrypted</t>
   </si>
 </sst>
@@ -196,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -712,77 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -817,19 +749,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -885,30 +804,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1060,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1182,21 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1208,61 +1088,122 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1274,22 +1215,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,59 +1251,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1367,63 +1278,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1765,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW58"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1805,116 +1687,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="141">
+      <c r="H1" s="168">
         <v>1</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="135">
+      <c r="I1" s="166"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="166">
         <v>2</v>
       </c>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="141">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="168">
         <v>3</v>
       </c>
-      <c r="O1" s="135"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="135">
+      <c r="O1" s="166"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="166">
         <v>4</v>
       </c>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="141">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="168">
         <v>5</v>
       </c>
-      <c r="U1" s="135"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="135" t="s">
+      <c r="U1" s="166"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="139" t="s">
+      <c r="X1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="135" t="s">
+      <c r="Y1" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="139" t="s">
+      <c r="Z1" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="152" t="s">
+      <c r="AB1" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="147">
+      <c r="AC1" s="151">
         <v>1</v>
       </c>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="147">
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="145">
         <v>2</v>
       </c>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="150"/>
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="152"/>
       <c r="AI1" s="151">
         <v>3</v>
       </c>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="147">
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="145">
         <v>4</v>
       </c>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="150"/>
+      <c r="AM1" s="146"/>
+      <c r="AN1" s="152"/>
       <c r="AO1" s="151">
         <v>5</v>
       </c>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="156" t="s">
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="158" t="s">
+      <c r="AS1" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="160" t="s">
+      <c r="AT1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" s="156" t="s">
+      <c r="AU1" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" s="139" t="s">
+      <c r="AW1" s="143" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="136"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="21" t="s">
         <v>12</v>
       </c>
@@ -1960,73 +1842,73 @@
       <c r="V2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="136"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="140"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="65" t="s">
+      <c r="W2" s="167"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="165"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="67" t="s">
+      <c r="AE2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="66" t="s">
+      <c r="AG2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="68" t="s">
+      <c r="AH2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="69" t="s">
+      <c r="AI2" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AK2" s="67" t="s">
+      <c r="AK2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="65" t="s">
+      <c r="AL2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="68" t="s">
+      <c r="AN2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="69" t="s">
+      <c r="AO2" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="66" t="s">
+      <c r="AP2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="68" t="s">
+      <c r="AQ2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="157"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="161"/>
-      <c r="AU2" s="157"/>
-      <c r="AW2" s="155"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="186"/>
+      <c r="AT2" s="187"/>
+      <c r="AU2" s="185"/>
+      <c r="AW2" s="144"/>
     </row>
     <row r="3" spans="1:49">
-      <c r="A3" s="132">
+      <c r="A3" s="156">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="159">
         <v>2</v>
       </c>
-      <c r="D3" s="129">
+      <c r="D3" s="159">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2083,99 +1965,94 @@
       <c r="V3" s="41">
         <v>2550.4724000000001</v>
       </c>
-      <c r="W3" s="87">
+      <c r="W3" s="81">
         <f>MIN(J3,M3,P3,S3,V3)</f>
         <v>2550.4724000000001</v>
       </c>
-      <c r="X3" s="79">
+      <c r="X3" s="74">
         <f>MAX(J3,M3,P3,S3,V3)</f>
         <v>2626.0212000000001</v>
       </c>
-      <c r="Y3" s="87">
+      <c r="Y3" s="81">
         <f>AVERAGE(J3,M3,P3,S3,V3)</f>
         <v>2593.8711400000002</v>
       </c>
-      <c r="Z3" s="79">
+      <c r="Z3" s="74">
         <f>_xlfn.STDEV.S(J3,M3,P3,S3,V3)</f>
         <v>28.386428290699051</v>
       </c>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="58">
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="117">
         <v>10.000400000000001</v>
       </c>
-      <c r="AD3" s="56">
-        <v>24135</v>
-      </c>
-      <c r="AE3" s="57">
-        <f>AD3/AC3</f>
-        <v>2413.4034638614453</v>
-      </c>
-      <c r="AF3" s="58">
+      <c r="AD3" s="118">
+        <v>26135</v>
+      </c>
+      <c r="AE3" s="120">
+        <v>2613.3953999999999</v>
+      </c>
+      <c r="AF3" s="121">
         <v>10.000299999999999</v>
       </c>
-      <c r="AG3" s="56">
-        <v>24257</v>
-      </c>
-      <c r="AH3" s="59">
-        <f>AG3/AF3</f>
-        <v>2425.6272311830649</v>
-      </c>
-      <c r="AI3" s="60">
+      <c r="AG3" s="118">
+        <v>26257</v>
+      </c>
+      <c r="AH3" s="119">
+        <v>2625.6212</v>
+      </c>
+      <c r="AI3" s="117">
         <v>10.0002</v>
       </c>
-      <c r="AJ3" s="56">
-        <v>22179</v>
-      </c>
-      <c r="AK3" s="57">
-        <f>AJ3/AI3</f>
-        <v>2217.8556428871425</v>
-      </c>
-      <c r="AL3" s="58">
+      <c r="AJ3" s="118">
+        <v>26179</v>
+      </c>
+      <c r="AK3" s="120">
+        <v>2617.8476000000001</v>
+      </c>
+      <c r="AL3" s="121">
         <v>10.000400000000001</v>
       </c>
-      <c r="AM3" s="56">
-        <v>22231</v>
-      </c>
-      <c r="AN3" s="59">
-        <f>AM3/AL3</f>
-        <v>2223.0110795568175</v>
-      </c>
-      <c r="AO3" s="60">
+      <c r="AM3" s="118">
+        <v>26231</v>
+      </c>
+      <c r="AN3" s="119">
+        <v>2622.9949999999999</v>
+      </c>
+      <c r="AO3" s="117">
         <v>10.000400000000001</v>
       </c>
-      <c r="AP3" s="56">
-        <v>21940</v>
-      </c>
-      <c r="AQ3" s="59">
-        <f>AP3/AO3</f>
-        <v>2193.9122435102595</v>
-      </c>
-      <c r="AR3" s="72">
+      <c r="AP3" s="118">
+        <v>25940</v>
+      </c>
+      <c r="AQ3" s="120">
+        <v>2593.8962000000001</v>
+      </c>
+      <c r="AR3" s="184">
         <f>MIN(AE3,AH3,AK3,AN3,AQ3)</f>
-        <v>2193.9122435102595</v>
-      </c>
-      <c r="AS3" s="71">
+        <v>2593.8962000000001</v>
+      </c>
+      <c r="AS3" s="81">
         <f>MAX(AE3,AH3,AK3,AN3,AQ3)</f>
-        <v>2425.6272311830649</v>
-      </c>
-      <c r="AT3" s="70">
+        <v>2625.6212</v>
+      </c>
+      <c r="AT3" s="74">
         <f>AVERAGE(AE3,AH3,AK3,AN3,AQ3)</f>
-        <v>2294.7619321997458</v>
-      </c>
-      <c r="AU3" s="72">
+        <v>2614.7510799999995</v>
+      </c>
+      <c r="AU3" s="184">
         <f>_xlfn.STDEV.S(AE3,AH3,AK3,AN3,AQ3)</f>
-        <v>114.49340746590485</v>
-      </c>
-      <c r="AW3" s="70" t="e">
+        <v>12.574518380120908</v>
+      </c>
+      <c r="AW3" s="65" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:49">
-      <c r="A4" s="133"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2230,99 +2107,94 @@
       <c r="V4" s="41">
         <v>1015.2187</v>
       </c>
-      <c r="W4" s="110">
+      <c r="W4" s="98">
         <f t="shared" ref="W4:W16" si="0">MIN(J4,M4,P4,S4,V4)</f>
         <v>1002.1398</v>
       </c>
-      <c r="X4" s="109">
+      <c r="X4" s="97">
         <f t="shared" ref="X4:X23" si="1">MAX(J4,M4,P4,S4,V4)</f>
         <v>1017.4084</v>
       </c>
-      <c r="Y4" s="110">
+      <c r="Y4" s="98">
         <f t="shared" ref="Y4:Y23" si="2">AVERAGE(J4,M4,P4,S4,V4)</f>
         <v>1012.35918</v>
       </c>
-      <c r="Z4" s="109">
+      <c r="Z4" s="97">
         <f t="shared" ref="Z4:Z23" si="3">_xlfn.STDEV.S(J4,M4,P4,S4,V4)</f>
         <v>6.0772923544947117</v>
       </c>
-      <c r="AB4" s="153"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="36">
         <v>10.000500000000001</v>
       </c>
       <c r="AD4" s="37">
         <v>9946</v>
       </c>
-      <c r="AE4" s="57">
-        <f t="shared" ref="AE4:AE30" si="4">AD4/AC4</f>
-        <v>994.55027248637566</v>
-      </c>
-      <c r="AF4" s="36">
+      <c r="AE4" s="38">
+        <v>994.55020000000002</v>
+      </c>
+      <c r="AF4" s="44">
         <v>10.0006</v>
       </c>
       <c r="AG4" s="37">
         <v>10111</v>
       </c>
-      <c r="AH4" s="59">
-        <f t="shared" ref="AH4:AH30" si="5">AG4/AF4</f>
-        <v>1011.0393376397416</v>
-      </c>
-      <c r="AI4" s="44">
+      <c r="AH4" s="45">
+        <v>1011.0393</v>
+      </c>
+      <c r="AI4" s="36">
         <v>10.000400000000001</v>
       </c>
       <c r="AJ4" s="37">
         <v>9909</v>
       </c>
-      <c r="AK4" s="57">
-        <f t="shared" ref="AK4:AK30" si="6">AJ4/AI4</f>
-        <v>990.86036558537648</v>
-      </c>
-      <c r="AL4" s="36">
+      <c r="AK4" s="38">
+        <v>990.86030000000005</v>
+      </c>
+      <c r="AL4" s="44">
         <v>10.000299999999999</v>
       </c>
       <c r="AM4" s="37">
         <v>9996</v>
       </c>
-      <c r="AN4" s="59">
-        <f t="shared" ref="AN4:AN30" si="7">AM4/AL4</f>
-        <v>999.57001289961306</v>
-      </c>
-      <c r="AO4" s="44">
+      <c r="AN4" s="45">
+        <v>999.57</v>
+      </c>
+      <c r="AO4" s="36">
         <v>10.0009</v>
       </c>
       <c r="AP4" s="37">
         <v>9650</v>
       </c>
-      <c r="AQ4" s="59">
-        <f t="shared" ref="AQ4:AQ30" si="8">AP4/AO4</f>
-        <v>964.91315781579658</v>
-      </c>
-      <c r="AR4" s="75">
-        <f t="shared" ref="AR4:AR30" si="9">MIN(AE4,AH4,AK4,AN4,AQ4)</f>
-        <v>964.91315781579658</v>
-      </c>
-      <c r="AS4" s="74">
-        <f t="shared" ref="AS4:AS30" si="10">MAX(AE4,AH4,AK4,AN4,AQ4)</f>
-        <v>1011.0393376397416</v>
-      </c>
-      <c r="AT4" s="73">
-        <f t="shared" ref="AT4:AT30" si="11">AVERAGE(AE4,AH4,AK4,AN4,AQ4)</f>
-        <v>992.18662928538072</v>
-      </c>
-      <c r="AU4" s="75">
-        <f t="shared" ref="AU4:AU30" si="12">_xlfn.STDEV.S(AE4,AH4,AK4,AN4,AQ4)</f>
-        <v>17.03765679660264</v>
-      </c>
-      <c r="AW4" s="109" t="e">
+      <c r="AQ4" s="38">
+        <v>964.91309999999999</v>
+      </c>
+      <c r="AR4" s="70">
+        <f t="shared" ref="AR4:AR30" si="4">MIN(AE4,AH4,AK4,AN4,AQ4)</f>
+        <v>964.91309999999999</v>
+      </c>
+      <c r="AS4" s="69">
+        <f t="shared" ref="AS4:AS30" si="5">MAX(AE4,AH4,AK4,AN4,AQ4)</f>
+        <v>1011.0393</v>
+      </c>
+      <c r="AT4" s="68">
+        <f t="shared" ref="AT4:AT30" si="6">AVERAGE(AE4,AH4,AK4,AN4,AQ4)</f>
+        <v>992.18658000000016</v>
+      </c>
+      <c r="AU4" s="70">
+        <f t="shared" ref="AU4:AU30" si="7">_xlfn.STDEV.S(AE4,AH4,AK4,AN4,AQ4)</f>
+        <v>17.037666886548774</v>
+      </c>
+      <c r="AW4" s="97" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:49">
-      <c r="A5" s="133"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2377,99 +2249,94 @@
       <c r="V5" s="48">
         <v>28.878299999999999</v>
       </c>
-      <c r="W5" s="104">
+      <c r="W5" s="94">
         <f t="shared" si="0"/>
         <v>27.888500000000001</v>
       </c>
-      <c r="X5" s="103">
+      <c r="X5" s="93">
         <f t="shared" si="1"/>
         <v>29.483699999999999</v>
       </c>
-      <c r="Y5" s="104">
+      <c r="Y5" s="94">
         <f t="shared" si="2"/>
         <v>28.655060000000002</v>
       </c>
-      <c r="Z5" s="103">
+      <c r="Z5" s="93">
         <f t="shared" si="3"/>
         <v>0.60969565194447572</v>
       </c>
-      <c r="AB5" s="153"/>
+      <c r="AB5" s="154"/>
       <c r="AC5" s="51">
         <v>3.4438</v>
       </c>
       <c r="AD5" s="52">
         <v>100</v>
       </c>
-      <c r="AE5" s="115">
-        <f t="shared" si="4"/>
-        <v>29.037690922817816</v>
-      </c>
-      <c r="AF5" s="51">
+      <c r="AE5" s="53">
+        <v>29.037600000000001</v>
+      </c>
+      <c r="AF5" s="54">
         <v>3.3925999999999998</v>
       </c>
       <c r="AG5" s="52">
         <v>100</v>
       </c>
-      <c r="AH5" s="116">
-        <f t="shared" si="5"/>
-        <v>29.475918174851149</v>
-      </c>
-      <c r="AI5" s="54">
+      <c r="AH5" s="55">
+        <v>29.475899999999999</v>
+      </c>
+      <c r="AI5" s="51">
         <v>3.4594999999999998</v>
       </c>
       <c r="AJ5" s="52">
         <v>100</v>
       </c>
-      <c r="AK5" s="115">
-        <f t="shared" si="6"/>
-        <v>28.905911258852438</v>
-      </c>
-      <c r="AL5" s="51">
+      <c r="AK5" s="53">
+        <v>28.905899999999999</v>
+      </c>
+      <c r="AL5" s="54">
         <v>3.4552999999999998</v>
       </c>
       <c r="AM5" s="52">
         <v>100</v>
       </c>
-      <c r="AN5" s="116">
-        <f t="shared" si="7"/>
-        <v>28.941047087083611</v>
-      </c>
-      <c r="AO5" s="54">
+      <c r="AN5" s="55">
+        <v>28.940999999999999</v>
+      </c>
+      <c r="AO5" s="51">
         <v>4.5701000000000001</v>
       </c>
       <c r="AP5" s="52">
         <v>100</v>
       </c>
-      <c r="AQ5" s="116">
-        <f t="shared" si="8"/>
-        <v>21.881359270037855</v>
-      </c>
-      <c r="AR5" s="78">
-        <f t="shared" si="9"/>
-        <v>21.881359270037855</v>
-      </c>
-      <c r="AS5" s="77">
-        <f t="shared" si="10"/>
-        <v>29.475918174851149</v>
-      </c>
-      <c r="AT5" s="76">
-        <f t="shared" si="11"/>
-        <v>27.648385342728574</v>
-      </c>
-      <c r="AU5" s="78">
-        <f t="shared" si="12"/>
-        <v>3.2319104947960131</v>
-      </c>
-      <c r="AW5" s="103" t="e">
+      <c r="AQ5" s="53">
+        <v>21.8813</v>
+      </c>
+      <c r="AR5" s="73">
+        <f t="shared" si="4"/>
+        <v>21.8813</v>
+      </c>
+      <c r="AS5" s="72">
+        <f t="shared" si="5"/>
+        <v>29.475899999999999</v>
+      </c>
+      <c r="AT5" s="71">
+        <f t="shared" si="6"/>
+        <v>27.648340000000001</v>
+      </c>
+      <c r="AU5" s="73">
+        <f t="shared" si="7"/>
+        <v>3.2319187912136127</v>
+      </c>
+      <c r="AW5" s="93" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:49">
-      <c r="A6" s="133"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2524,99 +2391,94 @@
       <c r="V6" s="48">
         <v>0.1462</v>
       </c>
-      <c r="W6" s="107">
+      <c r="W6" s="96">
         <f t="shared" si="0"/>
         <v>0.14119999999999999</v>
       </c>
-      <c r="X6" s="106">
+      <c r="X6" s="95">
         <f t="shared" si="1"/>
         <v>0.14960000000000001</v>
       </c>
-      <c r="Y6" s="107">
+      <c r="Y6" s="96">
         <f t="shared" si="2"/>
         <v>0.14613999999999999</v>
       </c>
-      <c r="Z6" s="106">
+      <c r="Z6" s="95">
         <f t="shared" si="3"/>
         <v>3.0737599125501051E-3</v>
       </c>
-      <c r="AB6" s="153"/>
+      <c r="AB6" s="154"/>
       <c r="AC6" s="51">
         <v>11.79</v>
       </c>
       <c r="AD6" s="52">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="115">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="53">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="AF6" s="54">
+        <v>11.255800000000001</v>
+      </c>
+      <c r="AG6" s="52">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="55">
+        <v>0.3553</v>
+      </c>
+      <c r="AI6" s="51">
+        <v>11.192299999999999</v>
+      </c>
+      <c r="AJ6" s="52">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="53">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AL6" s="54">
+        <v>10.623200000000001</v>
+      </c>
+      <c r="AM6" s="52">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="55">
+        <v>0.3765</v>
+      </c>
+      <c r="AO6" s="51">
+        <v>10.0525</v>
+      </c>
+      <c r="AP6" s="52">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="53">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="AR6" s="73">
         <f t="shared" si="4"/>
-        <v>8.4817642069550475E-2</v>
-      </c>
-      <c r="AF6" s="51">
-        <v>11.255800000000001</v>
-      </c>
-      <c r="AG6" s="52">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="116">
-        <f>AG6/AF6</f>
-        <v>0.17768617068533554</v>
-      </c>
-      <c r="AI6" s="54">
-        <v>11.192299999999999</v>
-      </c>
-      <c r="AJ6" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="115">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="AS6" s="72">
+        <f t="shared" si="5"/>
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="AT6" s="71">
         <f t="shared" si="6"/>
-        <v>0.17869428088954015</v>
-      </c>
-      <c r="AL6" s="51">
-        <v>10.623200000000001</v>
-      </c>
-      <c r="AM6" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="116">
+        <v>0.34828000000000003</v>
+      </c>
+      <c r="AU6" s="73">
         <f t="shared" si="7"/>
-        <v>9.4133594397168452E-2</v>
-      </c>
-      <c r="AO6" s="54">
-        <v>10.0525</v>
-      </c>
-      <c r="AP6" s="52">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="116">
-        <f t="shared" si="8"/>
-        <v>0.19895548371051977</v>
-      </c>
-      <c r="AR6" s="78">
-        <f t="shared" si="9"/>
-        <v>8.4817642069550475E-2</v>
-      </c>
-      <c r="AS6" s="77">
-        <f t="shared" si="10"/>
-        <v>0.19895548371051977</v>
-      </c>
-      <c r="AT6" s="76">
-        <f t="shared" si="11"/>
-        <v>0.14685743435042287</v>
-      </c>
-      <c r="AU6" s="78">
-        <f t="shared" si="12"/>
-        <v>5.3167051955041116E-2</v>
-      </c>
-      <c r="AW6" s="106" t="e">
+        <v>5.5232707701143524E-2</v>
+      </c>
+      <c r="AW6" s="95" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:49">
-      <c r="A7" s="133"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2671,99 +2533,94 @@
       <c r="V7" s="14">
         <v>30566.3488</v>
       </c>
-      <c r="W7" s="113">
+      <c r="W7" s="101">
         <f t="shared" si="0"/>
         <v>28561.8799</v>
       </c>
-      <c r="X7" s="112">
+      <c r="X7" s="100">
         <f t="shared" si="1"/>
         <v>30566.3488</v>
       </c>
-      <c r="Y7" s="113">
+      <c r="Y7" s="101">
         <f t="shared" si="2"/>
         <v>29442.713400000001</v>
       </c>
-      <c r="Z7" s="112">
+      <c r="Z7" s="100">
         <f t="shared" si="3"/>
         <v>734.85397873380271</v>
       </c>
-      <c r="AB7" s="153"/>
+      <c r="AB7" s="154"/>
       <c r="AC7" s="33">
         <v>10.004099999999999</v>
       </c>
       <c r="AD7" s="6">
-        <v>254159</v>
-      </c>
-      <c r="AE7" s="117">
+        <v>364159</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>36400.975599999998</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>10.0044</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>373825</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>37366.058900000004</v>
+      </c>
+      <c r="AI7" s="33">
+        <v>10.0039</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>385987</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>38583.652300000002</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>10.0036</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>368855</v>
+      </c>
+      <c r="AN7" s="35">
+        <v>36872.225899999998</v>
+      </c>
+      <c r="AO7" s="33">
+        <v>10.0036</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>349955</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>34982.9061</v>
+      </c>
+      <c r="AR7" s="104">
         <f t="shared" si="4"/>
-        <v>25405.483751661821</v>
-      </c>
-      <c r="AF7" s="33">
-        <v>10.0044</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>253825</v>
-      </c>
-      <c r="AH7" s="118">
+        <v>34982.9061</v>
+      </c>
+      <c r="AS7" s="82">
         <f t="shared" si="5"/>
-        <v>25371.336611890769</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>10.0039</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>255987</v>
-      </c>
-      <c r="AK7" s="117">
+        <v>38583.652300000002</v>
+      </c>
+      <c r="AT7" s="75">
         <f t="shared" si="6"/>
-        <v>25588.720399044374</v>
-      </c>
-      <c r="AL7" s="33">
-        <v>10.0036</v>
-      </c>
-      <c r="AM7" s="6">
-        <v>268855</v>
-      </c>
-      <c r="AN7" s="118">
+        <v>36841.163760000003</v>
+      </c>
+      <c r="AU7" s="63">
         <f t="shared" si="7"/>
-        <v>26875.824703106879</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>10.0036</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>249955</v>
-      </c>
-      <c r="AQ7" s="118">
-        <f>AP7/AO7</f>
-        <v>24986.504858251028</v>
-      </c>
-      <c r="AR7" s="121">
-        <f t="shared" si="9"/>
-        <v>24986.504858251028</v>
-      </c>
-      <c r="AS7" s="88">
-        <f t="shared" si="10"/>
-        <v>26875.824703106879</v>
-      </c>
-      <c r="AT7" s="80">
-        <f t="shared" si="11"/>
-        <v>25645.574064790977</v>
-      </c>
-      <c r="AU7" s="63">
-        <f t="shared" si="12"/>
-        <v>721.79822845902686</v>
-      </c>
-      <c r="AW7" s="112" t="e">
+        <v>1319.0558388219586</v>
+      </c>
+      <c r="AW7" s="100" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:49">
-      <c r="A8" s="133"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2818,99 +2675,94 @@
       <c r="V8" s="14">
         <v>18461.1849</v>
       </c>
-      <c r="W8" s="88">
+      <c r="W8" s="82">
         <f t="shared" si="0"/>
         <v>17822.451700000001</v>
       </c>
-      <c r="X8" s="80">
+      <c r="X8" s="75">
         <f t="shared" si="1"/>
         <v>19072.1577</v>
       </c>
-      <c r="Y8" s="88">
+      <c r="Y8" s="82">
         <f t="shared" si="2"/>
         <v>18420.136220000004</v>
       </c>
-      <c r="Z8" s="80">
+      <c r="Z8" s="75">
         <f t="shared" si="3"/>
         <v>445.63130619760824</v>
       </c>
-      <c r="AB8" s="153"/>
+      <c r="AB8" s="154"/>
       <c r="AC8" s="33">
         <v>10.0067</v>
       </c>
       <c r="AD8" s="6">
-        <v>177058</v>
-      </c>
-      <c r="AE8" s="117">
+        <v>247058</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>24689.258099999999</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>10.0078</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>253644</v>
+      </c>
+      <c r="AH8" s="35">
+        <v>25344.631099999999</v>
+      </c>
+      <c r="AI8" s="33">
+        <v>10.007199999999999</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>255704</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>25552.002499999999</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>10.005699999999999</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>246621</v>
+      </c>
+      <c r="AN8" s="35">
+        <v>24648.050599999999</v>
+      </c>
+      <c r="AO8" s="33">
+        <v>10.0054</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>251424</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>25128.830399999999</v>
+      </c>
+      <c r="AR8" s="104">
         <f t="shared" si="4"/>
-        <v>17693.945056811936</v>
-      </c>
-      <c r="AF8" s="33">
-        <v>10.0078</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>173644</v>
-      </c>
-      <c r="AH8" s="118">
+        <v>24648.050599999999</v>
+      </c>
+      <c r="AS8" s="82">
         <f t="shared" si="5"/>
-        <v>17350.866324267074</v>
-      </c>
-      <c r="AI8" s="10">
-        <v>10.007199999999999</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>175704</v>
-      </c>
-      <c r="AK8" s="117">
+        <v>25552.002499999999</v>
+      </c>
+      <c r="AT8" s="75">
         <f t="shared" si="6"/>
-        <v>17557.758413941963</v>
-      </c>
-      <c r="AL8" s="33">
-        <v>10.005699999999999</v>
-      </c>
-      <c r="AM8" s="6">
-        <v>186621</v>
-      </c>
-      <c r="AN8" s="118">
+        <v>25072.554540000001</v>
+      </c>
+      <c r="AU8" s="63">
         <f t="shared" si="7"/>
-        <v>18651.468662862171</v>
-      </c>
-      <c r="AO8" s="10">
-        <v>10.0054</v>
-      </c>
-      <c r="AP8" s="6">
-        <v>171424</v>
-      </c>
-      <c r="AQ8" s="118">
-        <f t="shared" si="8"/>
-        <v>17133.148100025985</v>
-      </c>
-      <c r="AR8" s="121">
-        <f t="shared" si="9"/>
-        <v>17133.148100025985</v>
-      </c>
-      <c r="AS8" s="88">
-        <f t="shared" si="10"/>
-        <v>18651.468662862171</v>
-      </c>
-      <c r="AT8" s="80">
-        <f t="shared" si="11"/>
-        <v>17677.437311581823</v>
-      </c>
-      <c r="AU8" s="63">
-        <f t="shared" si="12"/>
-        <v>584.4296307173563</v>
-      </c>
-      <c r="AW8" s="80" t="e">
+        <v>398.17795307517082</v>
+      </c>
+      <c r="AW8" s="75" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:49">
-      <c r="A9" s="134"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
@@ -2965,105 +2817,100 @@
       <c r="V9" s="14">
         <v>19169.972300000001</v>
       </c>
-      <c r="W9" s="89">
+      <c r="W9" s="83">
         <f t="shared" si="0"/>
         <v>19169.972300000001</v>
       </c>
-      <c r="X9" s="81">
+      <c r="X9" s="76">
         <f t="shared" si="1"/>
         <v>20238.197499999998</v>
       </c>
-      <c r="Y9" s="89">
+      <c r="Y9" s="83">
         <f t="shared" si="2"/>
         <v>19716.219780000003</v>
       </c>
-      <c r="Z9" s="81">
+      <c r="Z9" s="76">
         <f t="shared" si="3"/>
         <v>485.98097614436648</v>
       </c>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="33">
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="188">
         <v>10.0053</v>
       </c>
-      <c r="AD9" s="6">
-        <v>180258</v>
-      </c>
-      <c r="AE9" s="117">
-        <f>AD9/AC9</f>
-        <v>18016.251386765016</v>
-      </c>
-      <c r="AF9" s="33">
+      <c r="AD9" s="189">
+        <v>340258</v>
+      </c>
+      <c r="AE9" s="190">
+        <v>34007.775800000003</v>
+      </c>
+      <c r="AF9" s="191">
         <v>10.0046</v>
       </c>
-      <c r="AG9" s="6">
-        <v>170076</v>
-      </c>
-      <c r="AH9" s="118">
-        <f>AG9/AF9</f>
-        <v>16999.780101153468</v>
-      </c>
-      <c r="AI9" s="10">
+      <c r="AG9" s="189">
+        <v>330076</v>
+      </c>
+      <c r="AH9" s="192">
+        <v>32992.4234</v>
+      </c>
+      <c r="AI9" s="188">
         <v>10.0045</v>
       </c>
-      <c r="AJ9" s="6">
-        <v>174831</v>
-      </c>
-      <c r="AK9" s="117">
-        <f>AJ9/AI9</f>
-        <v>17475.236143735317</v>
-      </c>
-      <c r="AL9" s="33">
+      <c r="AJ9" s="189">
+        <v>314831</v>
+      </c>
+      <c r="AK9" s="190">
+        <v>31468.938900000001</v>
+      </c>
+      <c r="AL9" s="191">
         <v>10.0052</v>
       </c>
-      <c r="AM9" s="6">
-        <v>185039</v>
-      </c>
-      <c r="AN9" s="118">
+      <c r="AM9" s="189">
+        <v>325039</v>
+      </c>
+      <c r="AN9" s="192">
+        <v>32487.006700000002</v>
+      </c>
+      <c r="AO9" s="188">
+        <v>10.004799999999999</v>
+      </c>
+      <c r="AP9" s="189">
+        <v>299063</v>
+      </c>
+      <c r="AQ9" s="190">
+        <v>29891.951799999999</v>
+      </c>
+      <c r="AR9" s="109">
+        <f t="shared" si="4"/>
+        <v>29891.951799999999</v>
+      </c>
+      <c r="AS9" s="83">
+        <f t="shared" si="5"/>
+        <v>34007.775800000003</v>
+      </c>
+      <c r="AT9" s="76">
+        <f t="shared" si="6"/>
+        <v>32169.619320000005</v>
+      </c>
+      <c r="AU9" s="193">
         <f t="shared" si="7"/>
-        <v>18494.282972854115</v>
-      </c>
-      <c r="AO9" s="10">
-        <v>10.004799999999999</v>
-      </c>
-      <c r="AP9" s="6">
-        <v>179063</v>
-      </c>
-      <c r="AQ9" s="118">
-        <f t="shared" si="8"/>
-        <v>17897.709099632179</v>
-      </c>
-      <c r="AR9" s="121">
-        <f t="shared" si="9"/>
-        <v>16999.780101153468</v>
-      </c>
-      <c r="AS9" s="88">
-        <f t="shared" si="10"/>
-        <v>18494.282972854115</v>
-      </c>
-      <c r="AT9" s="80">
-        <f t="shared" si="11"/>
-        <v>17776.651940828022</v>
-      </c>
-      <c r="AU9" s="63">
-        <f t="shared" si="12"/>
-        <v>566.00317276810381</v>
-      </c>
-      <c r="AW9" s="81" t="e">
+        <v>1568.0627323745887</v>
+      </c>
+      <c r="AW9" s="76" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:49">
-      <c r="A10" s="132">
+      <c r="A10" s="156">
         <v>2</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="159">
         <v>4</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="159">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3120,99 +2967,94 @@
       <c r="V10" s="41">
         <v>2621.5689000000002</v>
       </c>
-      <c r="W10" s="87">
+      <c r="W10" s="81">
         <f t="shared" si="0"/>
         <v>2511.6990000000001</v>
       </c>
-      <c r="X10" s="79">
+      <c r="X10" s="74">
         <f t="shared" si="1"/>
         <v>2629.2211000000002</v>
       </c>
-      <c r="Y10" s="87">
+      <c r="Y10" s="81">
         <f t="shared" si="2"/>
         <v>2592.0762000000004</v>
       </c>
-      <c r="Z10" s="79">
+      <c r="Z10" s="74">
         <f t="shared" si="3"/>
         <v>46.917082531898814</v>
       </c>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="36">
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="117">
         <v>10.000500000000001</v>
       </c>
-      <c r="AD10" s="37">
+      <c r="AD10" s="118">
         <v>25860</v>
       </c>
-      <c r="AE10" s="57">
+      <c r="AE10" s="120">
+        <v>2585.8706999999999</v>
+      </c>
+      <c r="AF10" s="121">
+        <v>10.000500000000001</v>
+      </c>
+      <c r="AG10" s="118">
+        <v>26046</v>
+      </c>
+      <c r="AH10" s="119">
+        <v>2604.4697000000001</v>
+      </c>
+      <c r="AI10" s="117">
+        <v>10.0002</v>
+      </c>
+      <c r="AJ10" s="118">
+        <v>25940</v>
+      </c>
+      <c r="AK10" s="120">
+        <v>2593.9481000000001</v>
+      </c>
+      <c r="AL10" s="121">
+        <v>10.000500000000001</v>
+      </c>
+      <c r="AM10" s="118">
+        <v>26181</v>
+      </c>
+      <c r="AN10" s="119">
+        <v>2617.9690999999998</v>
+      </c>
+      <c r="AO10" s="117">
+        <v>10.000299999999999</v>
+      </c>
+      <c r="AP10" s="118">
+        <v>25951</v>
+      </c>
+      <c r="AQ10" s="120">
+        <v>2595.0221000000001</v>
+      </c>
+      <c r="AR10" s="184">
         <f t="shared" si="4"/>
-        <v>2585.8707064646765</v>
-      </c>
-      <c r="AF10" s="36">
-        <v>10.000500000000001</v>
-      </c>
-      <c r="AG10" s="37">
-        <v>26046</v>
-      </c>
-      <c r="AH10" s="59">
+        <v>2585.8706999999999</v>
+      </c>
+      <c r="AS10" s="81">
         <f t="shared" si="5"/>
-        <v>2604.4697765111741</v>
-      </c>
-      <c r="AI10" s="44">
-        <v>10.0002</v>
-      </c>
-      <c r="AJ10" s="37">
-        <v>25940</v>
-      </c>
-      <c r="AK10" s="57">
+        <v>2617.9690999999998</v>
+      </c>
+      <c r="AT10" s="74">
         <f t="shared" si="6"/>
-        <v>2593.9481210375793</v>
-      </c>
-      <c r="AL10" s="36">
-        <v>10.000500000000001</v>
-      </c>
-      <c r="AM10" s="37">
-        <v>26181</v>
-      </c>
-      <c r="AN10" s="59">
+        <v>2599.4559400000003</v>
+      </c>
+      <c r="AU10" s="184">
         <f t="shared" si="7"/>
-        <v>2617.9691015449225</v>
-      </c>
-      <c r="AO10" s="44">
-        <v>10.000299999999999</v>
-      </c>
-      <c r="AP10" s="37">
-        <v>25951</v>
-      </c>
-      <c r="AQ10" s="59">
-        <f t="shared" si="8"/>
-        <v>2595.0221493355202</v>
-      </c>
-      <c r="AR10" s="75">
-        <f t="shared" si="9"/>
-        <v>2585.8707064646765</v>
-      </c>
-      <c r="AS10" s="74">
-        <f t="shared" si="10"/>
-        <v>2617.9691015449225</v>
-      </c>
-      <c r="AT10" s="73">
-        <f t="shared" si="11"/>
-        <v>2599.4559709787745</v>
-      </c>
-      <c r="AU10" s="75">
-        <f t="shared" si="12"/>
-        <v>12.272212988423183</v>
-      </c>
-      <c r="AW10" s="79" t="e">
+        <v>12.272213196811661</v>
+      </c>
+      <c r="AW10" s="74" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:49">
-      <c r="A11" s="133"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
@@ -3267,99 +3109,94 @@
       <c r="V11" s="41">
         <v>992.89070000000004</v>
       </c>
-      <c r="W11" s="93">
+      <c r="W11" s="86">
         <f t="shared" si="0"/>
         <v>992.89070000000004</v>
       </c>
-      <c r="X11" s="92">
+      <c r="X11" s="85">
         <f t="shared" si="1"/>
         <v>1012.0595</v>
       </c>
-      <c r="Y11" s="93">
+      <c r="Y11" s="86">
         <f t="shared" si="2"/>
         <v>1004.8696200000001</v>
       </c>
-      <c r="Z11" s="92">
+      <c r="Z11" s="85">
         <f t="shared" si="3"/>
         <v>7.8220297862511075</v>
       </c>
-      <c r="AB11" s="153"/>
+      <c r="AB11" s="154"/>
       <c r="AC11" s="36">
         <v>10.0002</v>
       </c>
       <c r="AD11" s="37">
         <v>10137</v>
       </c>
-      <c r="AE11" s="57">
-        <f t="shared" si="4"/>
-        <v>1013.6797264054719</v>
-      </c>
-      <c r="AF11" s="36">
+      <c r="AE11" s="38">
+        <v>1013.6797</v>
+      </c>
+      <c r="AF11" s="44">
         <v>10.000400000000001</v>
       </c>
       <c r="AG11" s="37">
         <v>10129</v>
       </c>
-      <c r="AH11" s="59">
-        <f t="shared" si="5"/>
-        <v>1012.8594856205751</v>
-      </c>
-      <c r="AI11" s="44">
+      <c r="AH11" s="45">
+        <v>1012.8594000000001</v>
+      </c>
+      <c r="AI11" s="36">
         <v>10.001099999999999</v>
       </c>
       <c r="AJ11" s="37">
         <v>10131</v>
       </c>
-      <c r="AK11" s="57">
-        <f t="shared" si="6"/>
-        <v>1012.9885712571618</v>
-      </c>
-      <c r="AL11" s="36">
+      <c r="AK11" s="38">
+        <v>1012.9885</v>
+      </c>
+      <c r="AL11" s="44">
         <v>10.0009</v>
       </c>
       <c r="AM11" s="37">
         <v>10057</v>
       </c>
-      <c r="AN11" s="59">
-        <f t="shared" si="7"/>
-        <v>1005.609495145437</v>
-      </c>
-      <c r="AO11" s="44">
+      <c r="AN11" s="45">
+        <v>1005.6094000000001</v>
+      </c>
+      <c r="AO11" s="36">
         <v>10.001200000000001</v>
       </c>
       <c r="AP11" s="37">
         <v>10078</v>
       </c>
-      <c r="AQ11" s="59">
-        <f t="shared" si="8"/>
-        <v>1007.6790785105786</v>
-      </c>
-      <c r="AR11" s="75">
-        <f t="shared" si="9"/>
-        <v>1005.609495145437</v>
-      </c>
-      <c r="AS11" s="74">
-        <f t="shared" si="10"/>
-        <v>1013.6797264054719</v>
-      </c>
-      <c r="AT11" s="73">
-        <f t="shared" si="11"/>
-        <v>1010.5632713878449</v>
-      </c>
-      <c r="AU11" s="75">
-        <f t="shared" si="12"/>
-        <v>3.6648819472362399</v>
-      </c>
-      <c r="AW11" s="92" t="e">
+      <c r="AQ11" s="38">
+        <v>1007.679</v>
+      </c>
+      <c r="AR11" s="70">
+        <f t="shared" si="4"/>
+        <v>1005.6094000000001</v>
+      </c>
+      <c r="AS11" s="69">
+        <f t="shared" si="5"/>
+        <v>1013.6797</v>
+      </c>
+      <c r="AT11" s="68">
+        <f t="shared" si="6"/>
+        <v>1010.5631999999999</v>
+      </c>
+      <c r="AU11" s="70">
+        <f t="shared" si="7"/>
+        <v>3.6648987318887905</v>
+      </c>
+      <c r="AW11" s="85" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:49">
-      <c r="A12" s="133"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
@@ -3414,99 +3251,94 @@
       <c r="V12" s="48">
         <v>27.3216</v>
       </c>
-      <c r="W12" s="96">
+      <c r="W12" s="88">
         <f t="shared" si="0"/>
         <v>26.875900000000001</v>
       </c>
-      <c r="X12" s="95">
+      <c r="X12" s="87">
         <f t="shared" si="1"/>
         <v>27.6327</v>
       </c>
-      <c r="Y12" s="96">
+      <c r="Y12" s="88">
         <f t="shared" si="2"/>
         <v>27.202280000000002</v>
       </c>
-      <c r="Z12" s="95">
+      <c r="Z12" s="87">
         <f t="shared" si="3"/>
         <v>0.29448288065692324</v>
       </c>
-      <c r="AB12" s="153"/>
+      <c r="AB12" s="154"/>
       <c r="AC12" s="51">
         <v>3.0059999999999998</v>
       </c>
       <c r="AD12" s="52">
-        <v>90</v>
-      </c>
-      <c r="AE12" s="115">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="53">
+        <v>33.2667</v>
+      </c>
+      <c r="AF12" s="54">
+        <v>3.1768000000000001</v>
+      </c>
+      <c r="AG12" s="52">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="55">
+        <v>31.478200000000001</v>
+      </c>
+      <c r="AI12" s="51">
+        <v>3.1619000000000002</v>
+      </c>
+      <c r="AJ12" s="52">
+        <v>100</v>
+      </c>
+      <c r="AK12" s="53">
+        <v>31.6265</v>
+      </c>
+      <c r="AL12" s="54">
+        <v>3.1171000000000002</v>
+      </c>
+      <c r="AM12" s="52">
+        <v>100</v>
+      </c>
+      <c r="AN12" s="55">
+        <v>32.081099999999999</v>
+      </c>
+      <c r="AO12" s="51">
+        <v>3.2004999999999999</v>
+      </c>
+      <c r="AP12" s="52">
+        <v>100</v>
+      </c>
+      <c r="AQ12" s="53">
+        <v>31.245100000000001</v>
+      </c>
+      <c r="AR12" s="73">
         <f t="shared" si="4"/>
-        <v>29.940119760479043</v>
-      </c>
-      <c r="AF12" s="51">
-        <v>3.1768000000000001</v>
-      </c>
-      <c r="AG12" s="52">
-        <v>90</v>
-      </c>
-      <c r="AH12" s="116">
+        <v>31.245100000000001</v>
+      </c>
+      <c r="AS12" s="72">
         <f t="shared" si="5"/>
-        <v>28.330395366406446</v>
-      </c>
-      <c r="AI12" s="54">
-        <v>3.1619000000000002</v>
-      </c>
-      <c r="AJ12" s="52">
-        <v>80</v>
-      </c>
-      <c r="AK12" s="115">
+        <v>33.2667</v>
+      </c>
+      <c r="AT12" s="71">
         <f t="shared" si="6"/>
-        <v>25.301242923558618</v>
-      </c>
-      <c r="AL12" s="51">
-        <v>3.1171000000000002</v>
-      </c>
-      <c r="AM12" s="52">
-        <v>80</v>
-      </c>
-      <c r="AN12" s="116">
+        <v>31.939519999999998</v>
+      </c>
+      <c r="AU12" s="73">
         <f t="shared" si="7"/>
-        <v>25.664880818709698</v>
-      </c>
-      <c r="AO12" s="54">
-        <v>3.2004999999999999</v>
-      </c>
-      <c r="AP12" s="52">
-        <v>80</v>
-      </c>
-      <c r="AQ12" s="116">
-        <f t="shared" si="8"/>
-        <v>24.996094360256212</v>
-      </c>
-      <c r="AR12" s="78">
-        <f t="shared" si="9"/>
-        <v>24.996094360256212</v>
-      </c>
-      <c r="AS12" s="77">
-        <f t="shared" si="10"/>
-        <v>29.940119760479043</v>
-      </c>
-      <c r="AT12" s="76">
-        <f t="shared" si="11"/>
-        <v>26.846546645882007</v>
-      </c>
-      <c r="AU12" s="78">
-        <f t="shared" si="12"/>
-        <v>2.1783292349568444</v>
-      </c>
-      <c r="AW12" s="95" t="e">
+        <v>0.80225750978099275</v>
+      </c>
+      <c r="AW12" s="87" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:49">
-      <c r="A13" s="133"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
@@ -3561,99 +3393,94 @@
       <c r="V13" s="48">
         <v>0.14080000000000001</v>
       </c>
-      <c r="W13" s="101">
+      <c r="W13" s="92">
         <f t="shared" si="0"/>
         <v>0.13339999999999999</v>
       </c>
-      <c r="X13" s="100">
+      <c r="X13" s="91">
         <f t="shared" si="1"/>
         <v>0.14080000000000001</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="92">
         <f t="shared" si="2"/>
         <v>0.13818000000000003</v>
       </c>
-      <c r="Z13" s="100">
+      <c r="Z13" s="91">
         <f t="shared" si="3"/>
         <v>3.2368194265358719E-3</v>
       </c>
-      <c r="AB13" s="153"/>
+      <c r="AB13" s="154"/>
       <c r="AC13" s="51">
         <v>11.925700000000001</v>
       </c>
       <c r="AD13" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE13" s="115">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="53">
+        <v>0.2515</v>
+      </c>
+      <c r="AF13" s="54">
+        <v>10.9503</v>
+      </c>
+      <c r="AG13" s="52">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="55">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="AI13" s="51">
+        <v>10.248100000000001</v>
+      </c>
+      <c r="AJ13" s="52">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="53">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="AL13" s="54">
+        <v>10.145799999999999</v>
+      </c>
+      <c r="AM13" s="52">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="55">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="AO13" s="51">
+        <v>11.1418</v>
+      </c>
+      <c r="AP13" s="52">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="53">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="AR13" s="73">
         <f t="shared" si="4"/>
-        <v>0.16770504037498846</v>
-      </c>
-      <c r="AF13" s="51">
-        <v>10.9503</v>
-      </c>
-      <c r="AG13" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="116">
+        <v>0.2515</v>
+      </c>
+      <c r="AS13" s="72">
         <f t="shared" si="5"/>
-        <v>9.1321698948887239E-2</v>
-      </c>
-      <c r="AI13" s="54">
-        <v>10.248100000000001</v>
-      </c>
-      <c r="AJ13" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="115">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="AT13" s="71">
         <f t="shared" si="6"/>
-        <v>0.19515812687229828</v>
-      </c>
-      <c r="AL13" s="51">
-        <v>10.145799999999999</v>
-      </c>
-      <c r="AM13" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="116">
+        <v>0.29610000000000003</v>
+      </c>
+      <c r="AU13" s="73">
         <f t="shared" si="7"/>
-        <v>9.856295215754303E-2</v>
-      </c>
-      <c r="AO13" s="54">
-        <v>11.1418</v>
-      </c>
-      <c r="AP13" s="52">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="116">
-        <f t="shared" si="8"/>
-        <v>8.9752104686854906E-2</v>
-      </c>
-      <c r="AR13" s="78">
-        <f t="shared" si="9"/>
-        <v>8.9752104686854906E-2</v>
-      </c>
-      <c r="AS13" s="77">
-        <f t="shared" si="10"/>
-        <v>0.19515812687229828</v>
-      </c>
-      <c r="AT13" s="76">
-        <f t="shared" si="11"/>
-        <v>0.12849998460811438</v>
-      </c>
-      <c r="AU13" s="78">
-        <f t="shared" si="12"/>
-        <v>4.9396845452654894E-2</v>
-      </c>
-      <c r="AW13" s="100" t="e">
+        <v>5.4953389340421488E-2</v>
+      </c>
+      <c r="AW13" s="91" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:49">
-      <c r="A14" s="133"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
@@ -3708,99 +3535,94 @@
       <c r="V14" s="14">
         <v>26065.749</v>
       </c>
-      <c r="W14" s="99">
+      <c r="W14" s="90">
         <f t="shared" si="0"/>
         <v>24687.721600000001</v>
       </c>
-      <c r="X14" s="98">
+      <c r="X14" s="89">
         <f t="shared" si="1"/>
         <v>31142.320199999998</v>
       </c>
-      <c r="Y14" s="99">
+      <c r="Y14" s="90">
         <f t="shared" si="2"/>
         <v>27630.25662</v>
       </c>
-      <c r="Z14" s="98">
+      <c r="Z14" s="89">
         <f t="shared" si="3"/>
         <v>2458.2241956716052</v>
       </c>
-      <c r="AB14" s="153"/>
+      <c r="AB14" s="154"/>
       <c r="AC14" s="33">
         <v>10.004200000000001</v>
       </c>
       <c r="AD14" s="6">
-        <v>281649</v>
-      </c>
-      <c r="AE14" s="117">
+        <v>411649</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>41147.618000000002</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>10.0037</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>411030</v>
+      </c>
+      <c r="AH14" s="35">
+        <v>41087.797500000001</v>
+      </c>
+      <c r="AI14" s="33">
+        <v>10.0032</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>434320</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>43418.106200000002</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>10.0145</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>399558</v>
+      </c>
+      <c r="AN14" s="35">
+        <v>39897.947899999999</v>
+      </c>
+      <c r="AO14" s="33">
+        <v>10.0046</v>
+      </c>
+      <c r="AP14" s="6">
+        <v>410092</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>40990.344400000002</v>
+      </c>
+      <c r="AR14" s="104">
         <f t="shared" si="4"/>
-        <v>28153.075708202552</v>
-      </c>
-      <c r="AF14" s="33">
-        <v>10.0037</v>
-      </c>
-      <c r="AG14" s="6">
-        <v>271030</v>
-      </c>
-      <c r="AH14" s="118">
+        <v>39897.947899999999</v>
+      </c>
+      <c r="AS14" s="82">
         <f t="shared" si="5"/>
-        <v>27092.975599028359</v>
-      </c>
-      <c r="AI14" s="10">
-        <v>10.0032</v>
-      </c>
-      <c r="AJ14" s="6">
-        <v>234320</v>
-      </c>
-      <c r="AK14" s="117">
-        <f>AJ14/AI14</f>
-        <v>23424.504158669228</v>
-      </c>
-      <c r="AL14" s="33">
-        <v>10.0145</v>
-      </c>
-      <c r="AM14" s="6">
-        <v>279558</v>
-      </c>
-      <c r="AN14" s="118">
+        <v>43418.106200000002</v>
+      </c>
+      <c r="AT14" s="75">
+        <f t="shared" si="6"/>
+        <v>41308.362800000003</v>
+      </c>
+      <c r="AU14" s="63">
         <f t="shared" si="7"/>
-        <v>27915.322781966148</v>
-      </c>
-      <c r="AO14" s="10">
-        <v>10.0046</v>
-      </c>
-      <c r="AP14" s="6">
-        <v>270092</v>
-      </c>
-      <c r="AQ14" s="118">
-        <f>AP14/AO14</f>
-        <v>26996.781480518963</v>
-      </c>
-      <c r="AR14" s="121">
-        <f t="shared" si="9"/>
-        <v>23424.504158669228</v>
-      </c>
-      <c r="AS14" s="88">
-        <f t="shared" si="10"/>
-        <v>28153.075708202552</v>
-      </c>
-      <c r="AT14" s="80">
-        <f t="shared" si="11"/>
-        <v>26716.531945677048</v>
-      </c>
-      <c r="AU14" s="63">
-        <f t="shared" si="12"/>
-        <v>1907.777111403534</v>
-      </c>
-      <c r="AW14" s="98" t="e">
+        <v>1286.070667674921</v>
+      </c>
+      <c r="AW14" s="89" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:49">
-      <c r="A15" s="133"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3855,99 +3677,94 @@
       <c r="V15" s="14">
         <v>19328.3917</v>
       </c>
-      <c r="W15" s="88">
+      <c r="W15" s="82">
         <f t="shared" si="0"/>
         <v>17356.371200000001</v>
       </c>
-      <c r="X15" s="80">
+      <c r="X15" s="75">
         <f t="shared" si="1"/>
         <v>19328.3917</v>
       </c>
-      <c r="Y15" s="88">
+      <c r="Y15" s="82">
         <f t="shared" si="2"/>
         <v>18582.841560000001</v>
       </c>
-      <c r="Z15" s="80">
+      <c r="Z15" s="75">
         <f t="shared" si="3"/>
         <v>921.16902629493165</v>
       </c>
-      <c r="AB15" s="153"/>
+      <c r="AB15" s="154"/>
       <c r="AC15" s="33">
         <v>10.007999999999999</v>
       </c>
       <c r="AD15" s="6">
-        <v>175233</v>
-      </c>
-      <c r="AE15" s="117">
+        <v>255233</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>25502.8976</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>10.007099999999999</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>251831</v>
+      </c>
+      <c r="AH15" s="35">
+        <v>25165.232599999999</v>
+      </c>
+      <c r="AI15" s="33">
+        <v>10.0068</v>
+      </c>
+      <c r="AJ15" s="6">
+        <v>251842</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>25167.086299999999</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>10.003399999999999</v>
+      </c>
+      <c r="AM15" s="6">
+        <v>245555</v>
+      </c>
+      <c r="AN15" s="35">
+        <v>24547.153900000001</v>
+      </c>
+      <c r="AO15" s="33">
+        <v>10.007099999999999</v>
+      </c>
+      <c r="AP15" s="6">
+        <v>261185</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>26099.969000000001</v>
+      </c>
+      <c r="AR15" s="104">
         <f t="shared" si="4"/>
-        <v>17509.292565947242</v>
-      </c>
-      <c r="AF15" s="33">
-        <v>10.007099999999999</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>171831</v>
-      </c>
-      <c r="AH15" s="118">
+        <v>24547.153900000001</v>
+      </c>
+      <c r="AS15" s="82">
         <f t="shared" si="5"/>
-        <v>17170.908654855055</v>
-      </c>
-      <c r="AI15" s="10">
-        <v>10.0068</v>
-      </c>
-      <c r="AJ15" s="6">
-        <v>171842</v>
-      </c>
-      <c r="AK15" s="117">
+        <v>26099.969000000001</v>
+      </c>
+      <c r="AT15" s="75">
         <f t="shared" si="6"/>
-        <v>17172.522684574487</v>
-      </c>
-      <c r="AL15" s="33">
-        <v>10.003399999999999</v>
-      </c>
-      <c r="AM15" s="6">
-        <v>185555</v>
-      </c>
-      <c r="AN15" s="118">
-        <f>AM15/AL15</f>
-        <v>18549.193274286743</v>
-      </c>
-      <c r="AO15" s="10">
-        <v>10.007099999999999</v>
-      </c>
-      <c r="AP15" s="6">
-        <v>171185</v>
-      </c>
-      <c r="AQ15" s="118">
-        <f t="shared" si="8"/>
-        <v>17106.3544883133</v>
-      </c>
-      <c r="AR15" s="121">
-        <f t="shared" si="9"/>
-        <v>17106.3544883133</v>
-      </c>
-      <c r="AS15" s="88">
-        <f t="shared" si="10"/>
-        <v>18549.193274286743</v>
-      </c>
-      <c r="AT15" s="80">
-        <f t="shared" si="11"/>
-        <v>17501.654333595365</v>
+        <v>25296.46788</v>
       </c>
       <c r="AU15" s="63">
-        <f t="shared" si="12"/>
-        <v>606.50195567097944</v>
-      </c>
-      <c r="AW15" s="80" t="e">
+        <f t="shared" si="7"/>
+        <v>566.49382426553166</v>
+      </c>
+      <c r="AW15" s="75" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:49">
-      <c r="A16" s="134"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
@@ -4002,105 +3819,100 @@
       <c r="V16" s="14">
         <v>19111.5353</v>
       </c>
-      <c r="W16" s="90">
+      <c r="W16" s="84">
         <f>MIN(J16,M16,P16,S16,V16)</f>
         <v>17781.1194</v>
       </c>
-      <c r="X16" s="82">
+      <c r="X16" s="77">
         <f t="shared" si="1"/>
         <v>19521.139899999998</v>
       </c>
-      <c r="Y16" s="90">
+      <c r="Y16" s="84">
         <f t="shared" si="2"/>
         <v>18726.178940000002</v>
       </c>
-      <c r="Z16" s="82">
+      <c r="Z16" s="77">
         <f t="shared" si="3"/>
         <v>652.82297576025348</v>
       </c>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="33">
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="188">
         <v>10.005599999999999</v>
       </c>
-      <c r="AD16" s="6">
-        <v>173272</v>
-      </c>
-      <c r="AE16" s="117">
+      <c r="AD16" s="189">
+        <v>343272</v>
+      </c>
+      <c r="AE16" s="190">
+        <v>34307.987500000003</v>
+      </c>
+      <c r="AF16" s="191">
+        <v>10.0038</v>
+      </c>
+      <c r="AG16" s="189">
+        <v>333320</v>
+      </c>
+      <c r="AH16" s="192">
+        <v>33319.338600000003</v>
+      </c>
+      <c r="AI16" s="188">
+        <v>10.004200000000001</v>
+      </c>
+      <c r="AJ16" s="189">
+        <v>340640</v>
+      </c>
+      <c r="AK16" s="190">
+        <v>34049.699099999998</v>
+      </c>
+      <c r="AL16" s="191">
+        <v>10.006</v>
+      </c>
+      <c r="AM16" s="189">
+        <v>329334</v>
+      </c>
+      <c r="AN16" s="192">
+        <v>32913.6518</v>
+      </c>
+      <c r="AO16" s="188">
+        <v>10.0054</v>
+      </c>
+      <c r="AP16" s="189">
+        <v>310998</v>
+      </c>
+      <c r="AQ16" s="190">
+        <v>31083.015100000001</v>
+      </c>
+      <c r="AR16" s="109">
         <f t="shared" si="4"/>
-        <v>17317.502198768692</v>
-      </c>
-      <c r="AF16" s="33">
-        <v>10.0038</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>183320</v>
-      </c>
-      <c r="AH16" s="118">
+        <v>31083.015100000001</v>
+      </c>
+      <c r="AS16" s="83">
         <f t="shared" si="5"/>
-        <v>18325.036486135268</v>
-      </c>
-      <c r="AI16" s="10">
-        <v>10.004200000000001</v>
-      </c>
-      <c r="AJ16" s="6">
-        <v>160640</v>
-      </c>
-      <c r="AK16" s="117">
+        <v>34307.987500000003</v>
+      </c>
+      <c r="AT16" s="76">
         <f t="shared" si="6"/>
-        <v>16057.255952499949</v>
-      </c>
-      <c r="AL16" s="33">
-        <v>10.006</v>
-      </c>
-      <c r="AM16" s="6">
-        <v>179334</v>
-      </c>
-      <c r="AN16" s="118">
+        <v>33134.738419999994</v>
+      </c>
+      <c r="AU16" s="193">
         <f t="shared" si="7"/>
-        <v>17922.64641215271</v>
-      </c>
-      <c r="AO16" s="10">
-        <v>10.0054</v>
-      </c>
-      <c r="AP16" s="6">
-        <v>160998</v>
-      </c>
-      <c r="AQ16" s="118">
-        <f>AP16/AO16</f>
-        <v>16091.110800167909</v>
-      </c>
-      <c r="AR16" s="121">
-        <f t="shared" si="9"/>
-        <v>16057.255952499949</v>
-      </c>
-      <c r="AS16" s="88">
-        <f t="shared" si="10"/>
-        <v>18325.036486135268</v>
-      </c>
-      <c r="AT16" s="80">
-        <f t="shared" si="11"/>
-        <v>17142.710369944907</v>
-      </c>
-      <c r="AU16" s="63">
-        <f t="shared" si="12"/>
-        <v>1039.3291593487188</v>
-      </c>
-      <c r="AW16" s="82" t="e">
+        <v>1275.3618654618961</v>
+      </c>
+      <c r="AW16" s="77" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:49">
-      <c r="A17" s="132">
+      <c r="A17" s="156">
         <v>3</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="159">
         <v>4</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="159">
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4157,99 +3969,94 @@
       <c r="V17" s="38">
         <v>2601.7770999999998</v>
       </c>
-      <c r="W17" s="71">
-        <f t="shared" ref="W17:W23" si="13">MIN(J17,M17,P17,S17,V17)</f>
+      <c r="W17" s="66">
+        <f t="shared" ref="W17:W23" si="8">MIN(J17,M17,P17,S17,V17)</f>
         <v>2589.9445999999998</v>
       </c>
-      <c r="X17" s="70">
+      <c r="X17" s="65">
         <f t="shared" si="1"/>
         <v>2619.8737999999998</v>
       </c>
-      <c r="Y17" s="71">
+      <c r="Y17" s="66">
         <f t="shared" si="2"/>
         <v>2603.4922799999995</v>
       </c>
-      <c r="Z17" s="70">
+      <c r="Z17" s="65">
         <f t="shared" si="3"/>
         <v>11.615389861601727</v>
       </c>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="36">
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="117">
         <v>10.0001</v>
       </c>
-      <c r="AD17" s="37">
+      <c r="AD17" s="118">
         <v>26138</v>
       </c>
-      <c r="AE17" s="57">
+      <c r="AE17" s="120">
+        <v>2613.7737999999999</v>
+      </c>
+      <c r="AF17" s="121">
+        <v>10.0009</v>
+      </c>
+      <c r="AG17" s="118">
+        <v>26029</v>
+      </c>
+      <c r="AH17" s="119">
+        <v>2602.6657</v>
+      </c>
+      <c r="AI17" s="117">
+        <v>10.000299999999999</v>
+      </c>
+      <c r="AJ17" s="118">
+        <v>25355</v>
+      </c>
+      <c r="AK17" s="120">
+        <v>2535.4238999999998</v>
+      </c>
+      <c r="AL17" s="121">
+        <v>10.000299999999999</v>
+      </c>
+      <c r="AM17" s="118">
+        <v>25285</v>
+      </c>
+      <c r="AN17" s="119">
+        <v>2528.4241000000002</v>
+      </c>
+      <c r="AO17" s="117">
+        <v>10.0002</v>
+      </c>
+      <c r="AP17" s="118">
+        <v>25675</v>
+      </c>
+      <c r="AQ17" s="120">
+        <v>2567.4486000000002</v>
+      </c>
+      <c r="AR17" s="184">
         <f t="shared" si="4"/>
-        <v>2613.7738622613774</v>
-      </c>
-      <c r="AF17" s="36">
-        <v>10.0009</v>
-      </c>
-      <c r="AG17" s="37">
-        <v>26029</v>
-      </c>
-      <c r="AH17" s="59">
+        <v>2528.4241000000002</v>
+      </c>
+      <c r="AS17" s="81">
         <f t="shared" si="5"/>
-        <v>2602.6657600815929</v>
-      </c>
-      <c r="AI17" s="44">
-        <v>10.000299999999999</v>
-      </c>
-      <c r="AJ17" s="37">
-        <v>25355</v>
-      </c>
-      <c r="AK17" s="57">
+        <v>2613.7737999999999</v>
+      </c>
+      <c r="AT17" s="74">
         <f t="shared" si="6"/>
-        <v>2535.4239372818815</v>
-      </c>
-      <c r="AL17" s="36">
-        <v>10.000299999999999</v>
-      </c>
-      <c r="AM17" s="37">
-        <v>25285</v>
-      </c>
-      <c r="AN17" s="59">
+        <v>2569.5472199999999</v>
+      </c>
+      <c r="AU17" s="184">
         <f t="shared" si="7"/>
-        <v>2528.4241472755821</v>
-      </c>
-      <c r="AO17" s="44">
-        <v>10.0002</v>
-      </c>
-      <c r="AP17" s="37">
-        <v>25675</v>
-      </c>
-      <c r="AQ17" s="59">
-        <f t="shared" si="8"/>
-        <v>2567.4486510269794</v>
-      </c>
-      <c r="AR17" s="75">
-        <f t="shared" si="9"/>
-        <v>2528.4241472755821</v>
-      </c>
-      <c r="AS17" s="74">
-        <f t="shared" si="10"/>
-        <v>2613.7738622613774</v>
-      </c>
-      <c r="AT17" s="73">
-        <f t="shared" si="11"/>
-        <v>2569.5472715854826</v>
-      </c>
-      <c r="AU17" s="75">
-        <f t="shared" si="12"/>
-        <v>38.447181653313542</v>
-      </c>
-      <c r="AW17" s="70" t="e">
+        <v>38.447172419659147</v>
+      </c>
+      <c r="AW17" s="65" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:49">
-      <c r="A18" s="133"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="5" t="s">
         <v>2</v>
       </c>
@@ -4304,99 +4111,94 @@
       <c r="V18" s="38">
         <v>1003.0896</v>
       </c>
-      <c r="W18" s="110">
-        <f t="shared" si="13"/>
+      <c r="W18" s="98">
+        <f t="shared" si="8"/>
         <v>986.43230000000005</v>
       </c>
-      <c r="X18" s="109">
+      <c r="X18" s="97">
         <f t="shared" si="1"/>
         <v>1013.4493</v>
       </c>
-      <c r="Y18" s="110">
+      <c r="Y18" s="98">
         <f t="shared" si="2"/>
         <v>1001.27232</v>
       </c>
-      <c r="Z18" s="109">
+      <c r="Z18" s="97">
         <f t="shared" si="3"/>
         <v>10.905189284097716</v>
       </c>
-      <c r="AB18" s="153"/>
+      <c r="AB18" s="154"/>
       <c r="AC18" s="36">
         <v>10.0014</v>
       </c>
       <c r="AD18" s="37">
         <v>9821</v>
       </c>
-      <c r="AE18" s="57">
-        <f t="shared" si="4"/>
-        <v>981.96252524646547</v>
-      </c>
-      <c r="AF18" s="36">
+      <c r="AE18" s="38">
+        <v>981.96249999999998</v>
+      </c>
+      <c r="AF18" s="44">
         <v>10.001300000000001</v>
       </c>
       <c r="AG18" s="37">
         <v>9820</v>
       </c>
-      <c r="AH18" s="59">
-        <f t="shared" si="5"/>
-        <v>981.87235659364273</v>
-      </c>
-      <c r="AI18" s="44">
+      <c r="AH18" s="45">
+        <v>981.8723</v>
+      </c>
+      <c r="AI18" s="36">
         <v>10.0007</v>
       </c>
       <c r="AJ18" s="37">
         <v>9717</v>
       </c>
-      <c r="AK18" s="57">
-        <f t="shared" si="6"/>
-        <v>971.63198576099671</v>
-      </c>
-      <c r="AL18" s="36">
+      <c r="AK18" s="38">
+        <v>971.63189999999997</v>
+      </c>
+      <c r="AL18" s="44">
         <v>10.0009</v>
       </c>
       <c r="AM18" s="37">
         <v>9841</v>
       </c>
-      <c r="AN18" s="59">
-        <f t="shared" si="7"/>
-        <v>984.01143897049269</v>
-      </c>
-      <c r="AO18" s="44">
+      <c r="AN18" s="45">
+        <v>984.01139999999998</v>
+      </c>
+      <c r="AO18" s="36">
         <v>10.000400000000001</v>
       </c>
       <c r="AP18" s="37">
         <v>10004</v>
       </c>
-      <c r="AQ18" s="59">
-        <f t="shared" si="8"/>
-        <v>1000.3599856005759</v>
-      </c>
-      <c r="AR18" s="75">
-        <f t="shared" si="9"/>
-        <v>971.63198576099671</v>
-      </c>
-      <c r="AS18" s="74">
-        <f t="shared" si="10"/>
-        <v>1000.3599856005759</v>
-      </c>
-      <c r="AT18" s="73">
-        <f t="shared" si="11"/>
-        <v>983.96765843443484</v>
-      </c>
-      <c r="AU18" s="75">
-        <f t="shared" si="12"/>
-        <v>10.359657039073189</v>
-      </c>
-      <c r="AW18" s="109" t="e">
+      <c r="AQ18" s="38">
+        <v>1000.3599</v>
+      </c>
+      <c r="AR18" s="70">
+        <f t="shared" si="4"/>
+        <v>971.63189999999997</v>
+      </c>
+      <c r="AS18" s="69">
+        <f t="shared" si="5"/>
+        <v>1000.3599</v>
+      </c>
+      <c r="AT18" s="68">
+        <f t="shared" si="6"/>
+        <v>983.96759999999995</v>
+      </c>
+      <c r="AU18" s="70">
+        <f t="shared" si="7"/>
+        <v>10.359652749006624</v>
+      </c>
+      <c r="AW18" s="97" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:49">
-      <c r="A19" s="133"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
@@ -4451,99 +4253,94 @@
       <c r="V19" s="53">
         <v>28.668900000000001</v>
       </c>
-      <c r="W19" s="104">
-        <f t="shared" si="13"/>
+      <c r="W19" s="94">
+        <f t="shared" si="8"/>
         <v>25.823699999999999</v>
       </c>
-      <c r="X19" s="103">
+      <c r="X19" s="93">
         <f t="shared" si="1"/>
         <v>30.824200000000001</v>
       </c>
-      <c r="Y19" s="104">
+      <c r="Y19" s="94">
         <f t="shared" si="2"/>
         <v>28.7104</v>
       </c>
-      <c r="Z19" s="103">
+      <c r="Z19" s="93">
         <f t="shared" si="3"/>
         <v>1.8757170149039015</v>
       </c>
-      <c r="AB19" s="153"/>
+      <c r="AB19" s="154"/>
       <c r="AC19" s="51">
         <v>3.6059999999999999</v>
       </c>
       <c r="AD19" s="52">
         <v>100</v>
       </c>
-      <c r="AE19" s="115">
-        <f t="shared" si="4"/>
-        <v>27.731558513588464</v>
-      </c>
-      <c r="AF19" s="51">
+      <c r="AE19" s="53">
+        <v>27.7315</v>
+      </c>
+      <c r="AF19" s="54">
         <v>4.1045999999999996</v>
       </c>
       <c r="AG19" s="52">
         <v>100</v>
       </c>
-      <c r="AH19" s="116">
-        <f t="shared" si="5"/>
-        <v>24.362909905959171</v>
-      </c>
-      <c r="AI19" s="54">
+      <c r="AH19" s="55">
+        <v>24.3629</v>
+      </c>
+      <c r="AI19" s="51">
         <v>3.9039999999999999</v>
       </c>
       <c r="AJ19" s="52">
         <v>100</v>
       </c>
-      <c r="AK19" s="115">
-        <f t="shared" si="6"/>
-        <v>25.614754098360656</v>
-      </c>
-      <c r="AL19" s="51">
+      <c r="AK19" s="53">
+        <v>25.614699999999999</v>
+      </c>
+      <c r="AL19" s="54">
         <v>3.9411</v>
       </c>
       <c r="AM19" s="52">
         <v>100</v>
       </c>
-      <c r="AN19" s="116">
-        <f t="shared" si="7"/>
-        <v>25.373626652457435</v>
-      </c>
-      <c r="AO19" s="54">
+      <c r="AN19" s="55">
+        <v>25.3736</v>
+      </c>
+      <c r="AO19" s="51">
         <v>3.7279</v>
       </c>
       <c r="AP19" s="52">
         <v>100</v>
       </c>
-      <c r="AQ19" s="116">
-        <f t="shared" si="8"/>
-        <v>26.824753882883126</v>
-      </c>
-      <c r="AR19" s="78">
-        <f t="shared" si="9"/>
-        <v>24.362909905959171</v>
-      </c>
-      <c r="AS19" s="77">
-        <f t="shared" si="10"/>
-        <v>27.731558513588464</v>
-      </c>
-      <c r="AT19" s="76">
-        <f t="shared" si="11"/>
-        <v>25.981520610649774</v>
-      </c>
-      <c r="AU19" s="78">
-        <f t="shared" si="12"/>
-        <v>1.3131668177925735</v>
-      </c>
-      <c r="AW19" s="103" t="e">
+      <c r="AQ19" s="53">
+        <v>26.8247</v>
+      </c>
+      <c r="AR19" s="73">
+        <f t="shared" si="4"/>
+        <v>24.3629</v>
+      </c>
+      <c r="AS19" s="72">
+        <f t="shared" si="5"/>
+        <v>27.7315</v>
+      </c>
+      <c r="AT19" s="71">
+        <f t="shared" si="6"/>
+        <v>25.981479999999998</v>
+      </c>
+      <c r="AU19" s="73">
+        <f t="shared" si="7"/>
+        <v>1.3131485871751152</v>
+      </c>
+      <c r="AW19" s="93" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:49">
-      <c r="A20" s="133"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4598,99 +4395,94 @@
       <c r="V20" s="53">
         <v>1.2235</v>
       </c>
-      <c r="W20" s="107">
-        <f t="shared" si="13"/>
+      <c r="W20" s="96">
+        <f t="shared" si="8"/>
         <v>1.2235</v>
       </c>
-      <c r="X20" s="106">
+      <c r="X20" s="95">
         <f t="shared" si="1"/>
         <v>1.4096</v>
       </c>
-      <c r="Y20" s="107">
+      <c r="Y20" s="96">
         <f t="shared" si="2"/>
         <v>1.3044</v>
       </c>
-      <c r="Z20" s="106">
+      <c r="Z20" s="95">
         <f t="shared" si="3"/>
         <v>8.2133154085302224E-2</v>
       </c>
-      <c r="AB20" s="153"/>
+      <c r="AB20" s="154"/>
       <c r="AC20" s="51">
         <v>10.7819</v>
       </c>
       <c r="AD20" s="52">
         <v>12</v>
       </c>
-      <c r="AE20" s="115">
-        <f t="shared" si="4"/>
-        <v>1.1129763770763965</v>
-      </c>
-      <c r="AF20" s="51">
+      <c r="AE20" s="53">
+        <v>1.1129</v>
+      </c>
+      <c r="AF20" s="54">
         <v>10.5785</v>
       </c>
       <c r="AG20" s="52">
         <v>12</v>
       </c>
-      <c r="AH20" s="116">
-        <f t="shared" si="5"/>
-        <v>1.1343763293472608</v>
-      </c>
-      <c r="AI20" s="54">
+      <c r="AH20" s="55">
+        <v>1.1343000000000001</v>
+      </c>
+      <c r="AI20" s="51">
         <v>10.1578</v>
       </c>
       <c r="AJ20" s="52">
         <v>11</v>
       </c>
-      <c r="AK20" s="115">
-        <f t="shared" si="6"/>
-        <v>1.0829116540983283</v>
-      </c>
-      <c r="AL20" s="51">
+      <c r="AK20" s="53">
+        <v>1.0829</v>
+      </c>
+      <c r="AL20" s="54">
         <v>10.101900000000001</v>
       </c>
       <c r="AM20" s="52">
         <v>12</v>
       </c>
-      <c r="AN20" s="116">
-        <f t="shared" si="7"/>
-        <v>1.1878953464199804</v>
-      </c>
-      <c r="AO20" s="54">
+      <c r="AN20" s="55">
+        <v>1.1878</v>
+      </c>
+      <c r="AO20" s="51">
         <v>10.2674</v>
       </c>
       <c r="AP20" s="52">
         <v>14</v>
       </c>
-      <c r="AQ20" s="116">
-        <f t="shared" si="8"/>
-        <v>1.3635389679957926</v>
-      </c>
-      <c r="AR20" s="78">
-        <f t="shared" si="9"/>
-        <v>1.0829116540983283</v>
-      </c>
-      <c r="AS20" s="77">
-        <f t="shared" si="10"/>
-        <v>1.3635389679957926</v>
-      </c>
-      <c r="AT20" s="76">
-        <f t="shared" si="11"/>
-        <v>1.1763397349875517</v>
-      </c>
-      <c r="AU20" s="78">
-        <f t="shared" si="12"/>
-        <v>0.1114469984250394</v>
-      </c>
-      <c r="AW20" s="106" t="e">
+      <c r="AQ20" s="53">
+        <v>1.3634999999999999</v>
+      </c>
+      <c r="AR20" s="73">
+        <f t="shared" si="4"/>
+        <v>1.0829</v>
+      </c>
+      <c r="AS20" s="72">
+        <f t="shared" si="5"/>
+        <v>1.3634999999999999</v>
+      </c>
+      <c r="AT20" s="71">
+        <f t="shared" si="6"/>
+        <v>1.17628</v>
+      </c>
+      <c r="AU20" s="73">
+        <f t="shared" si="7"/>
+        <v>0.11144865185366754</v>
+      </c>
+      <c r="AW20" s="95" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:49">
-      <c r="A21" s="133"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
@@ -4745,99 +4537,94 @@
       <c r="V21" s="7">
         <v>27454.879700000001</v>
       </c>
-      <c r="W21" s="113">
-        <f t="shared" si="13"/>
+      <c r="W21" s="101">
+        <f t="shared" si="8"/>
         <v>24979.616300000002</v>
       </c>
-      <c r="X21" s="112">
+      <c r="X21" s="100">
         <f t="shared" si="1"/>
         <v>27454.879700000001</v>
       </c>
-      <c r="Y21" s="113">
+      <c r="Y21" s="101">
         <f t="shared" si="2"/>
         <v>26084.911900000003</v>
       </c>
-      <c r="Z21" s="112">
+      <c r="Z21" s="100">
         <f t="shared" si="3"/>
         <v>895.78600953925081</v>
       </c>
-      <c r="AB21" s="153"/>
+      <c r="AB21" s="154"/>
       <c r="AC21" s="33">
         <v>10.005100000000001</v>
       </c>
       <c r="AD21" s="6">
-        <v>242492</v>
-      </c>
-      <c r="AE21" s="117">
+        <v>382492</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>38229.702799999999</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>10.0038</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>397319</v>
+      </c>
+      <c r="AH21" s="35">
+        <v>39716.8076</v>
+      </c>
+      <c r="AI21" s="33">
+        <v>10.0036</v>
+      </c>
+      <c r="AJ21" s="6">
+        <v>383451</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>38331.3007</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>10.0036</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>408101</v>
+      </c>
+      <c r="AN21" s="35">
+        <v>40795.4136</v>
+      </c>
+      <c r="AO21" s="33">
+        <v>10.0045</v>
+      </c>
+      <c r="AP21" s="6">
+        <v>367438</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>36727.272700000001</v>
+      </c>
+      <c r="AR21" s="104">
         <f t="shared" si="4"/>
-        <v>24236.839212001876</v>
-      </c>
-      <c r="AF21" s="33">
-        <v>10.0038</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>297319</v>
-      </c>
-      <c r="AH21" s="118">
+        <v>36727.272700000001</v>
+      </c>
+      <c r="AS21" s="82">
         <f t="shared" si="5"/>
-        <v>29720.60616965553</v>
-      </c>
-      <c r="AI21" s="10">
-        <v>10.0036</v>
-      </c>
-      <c r="AJ21" s="6">
-        <v>253451</v>
-      </c>
-      <c r="AK21" s="117">
+        <v>40795.4136</v>
+      </c>
+      <c r="AT21" s="75">
         <f t="shared" si="6"/>
-        <v>25335.979047542882</v>
-      </c>
-      <c r="AL21" s="33">
-        <v>10.0036</v>
-      </c>
-      <c r="AM21" s="6">
-        <v>248101</v>
-      </c>
-      <c r="AN21" s="118">
+        <v>38760.099479999997</v>
+      </c>
+      <c r="AU21" s="63">
         <f t="shared" si="7"/>
-        <v>24801.171578231835</v>
-      </c>
-      <c r="AO21" s="10">
-        <v>10.0045</v>
-      </c>
-      <c r="AP21" s="6">
-        <v>247438</v>
-      </c>
-      <c r="AQ21" s="118">
-        <f>AP21/AO21</f>
-        <v>24732.670298365734</v>
-      </c>
-      <c r="AR21" s="121">
-        <f t="shared" si="9"/>
-        <v>24236.839212001876</v>
-      </c>
-      <c r="AS21" s="88">
-        <f t="shared" si="10"/>
-        <v>29720.60616965553</v>
-      </c>
-      <c r="AT21" s="80">
-        <f t="shared" si="11"/>
-        <v>25765.453261159571</v>
-      </c>
-      <c r="AU21" s="63">
-        <f t="shared" si="12"/>
-        <v>2245.0402754346728</v>
-      </c>
-      <c r="AW21" s="112" t="e">
+        <v>1553.6543810734568</v>
+      </c>
+      <c r="AW21" s="100" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:49">
-      <c r="A22" s="133"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
@@ -4892,99 +4679,94 @@
       <c r="V22" s="7">
         <v>17441.5026</v>
       </c>
-      <c r="W22" s="88">
-        <f t="shared" si="13"/>
+      <c r="W22" s="82">
+        <f t="shared" si="8"/>
         <v>17193.509999999998</v>
       </c>
-      <c r="X22" s="80">
+      <c r="X22" s="75">
         <f t="shared" si="1"/>
         <v>19082.7163</v>
       </c>
-      <c r="Y22" s="88">
+      <c r="Y22" s="82">
         <f t="shared" si="2"/>
         <v>17962.934639999999</v>
       </c>
-      <c r="Z22" s="80">
+      <c r="Z22" s="75">
         <f t="shared" si="3"/>
         <v>810.74070119004364</v>
       </c>
-      <c r="AB22" s="153"/>
+      <c r="AB22" s="154"/>
       <c r="AC22" s="33">
         <v>10.0059</v>
       </c>
       <c r="AD22" s="6">
-        <v>179661</v>
-      </c>
-      <c r="AE22" s="117">
-        <f>AD22/AC22</f>
-        <v>17955.506251311726</v>
-      </c>
-      <c r="AF22" s="33">
+        <v>269661</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>26950.1993</v>
+      </c>
+      <c r="AF22" s="10">
         <v>10.007400000000001</v>
       </c>
       <c r="AG22" s="6">
-        <v>162539</v>
-      </c>
-      <c r="AH22" s="118">
+        <v>262539</v>
+      </c>
+      <c r="AH22" s="35">
+        <v>26234.486400000002</v>
+      </c>
+      <c r="AI22" s="33">
+        <v>10.006399999999999</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>258459</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>25829.369200000001</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>10.0108</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>243377</v>
+      </c>
+      <c r="AN22" s="35">
+        <v>24311.443599999999</v>
+      </c>
+      <c r="AO22" s="33">
+        <v>10.007400000000001</v>
+      </c>
+      <c r="AP22" s="6">
+        <v>254788</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>25459.959599999998</v>
+      </c>
+      <c r="AR22" s="104">
+        <f t="shared" si="4"/>
+        <v>24311.443599999999</v>
+      </c>
+      <c r="AS22" s="82">
         <f t="shared" si="5"/>
-        <v>16241.881008054039</v>
-      </c>
-      <c r="AI22" s="10">
-        <v>10.006399999999999</v>
-      </c>
-      <c r="AJ22" s="6">
-        <v>178459</v>
-      </c>
-      <c r="AK22" s="117">
+        <v>26950.1993</v>
+      </c>
+      <c r="AT22" s="75">
         <f t="shared" si="6"/>
-        <v>17834.485929005437</v>
-      </c>
-      <c r="AL22" s="33">
-        <v>10.0108</v>
-      </c>
-      <c r="AM22" s="6">
-        <v>173377</v>
-      </c>
-      <c r="AN22" s="118">
+        <v>25757.091619999999</v>
+      </c>
+      <c r="AU22" s="63">
         <f t="shared" si="7"/>
-        <v>17318.995484876334</v>
-      </c>
-      <c r="AO22" s="10">
-        <v>10.007400000000001</v>
-      </c>
-      <c r="AP22" s="6">
-        <v>174788</v>
-      </c>
-      <c r="AQ22" s="118">
-        <f t="shared" si="8"/>
-        <v>17465.875252313286</v>
-      </c>
-      <c r="AR22" s="121">
-        <f t="shared" si="9"/>
-        <v>16241.881008054039</v>
-      </c>
-      <c r="AS22" s="88">
-        <f t="shared" si="10"/>
-        <v>17955.506251311726</v>
-      </c>
-      <c r="AT22" s="80">
-        <f t="shared" si="11"/>
-        <v>17363.348785112164</v>
-      </c>
-      <c r="AU22" s="63">
-        <f t="shared" si="12"/>
-        <v>678.7469226136576</v>
-      </c>
-      <c r="AW22" s="81" t="e">
+        <v>979.13500035185325</v>
+      </c>
+      <c r="AW22" s="76" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:49">
-      <c r="A23" s="133"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
@@ -5039,105 +4821,100 @@
       <c r="V23" s="7">
         <v>22890.345499999999</v>
       </c>
-      <c r="W23" s="89">
-        <f t="shared" si="13"/>
+      <c r="W23" s="83">
+        <f t="shared" si="8"/>
         <v>22890.345499999999</v>
       </c>
-      <c r="X23" s="81">
+      <c r="X23" s="76">
         <f t="shared" si="1"/>
         <v>24191.617300000002</v>
       </c>
-      <c r="Y23" s="89">
+      <c r="Y23" s="83">
         <f t="shared" si="2"/>
         <v>23322.670779999997</v>
       </c>
-      <c r="Z23" s="81">
+      <c r="Z23" s="76">
         <f t="shared" si="3"/>
         <v>531.57292491240321</v>
       </c>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="33">
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="34">
         <v>10.004200000000001</v>
       </c>
-      <c r="AD23" s="6">
-        <v>252361</v>
-      </c>
-      <c r="AE23" s="117">
+      <c r="AD23" s="8">
+        <v>352361</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>35221.307000000001</v>
+      </c>
+      <c r="AF23" s="62">
+        <v>10.0037</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>369786</v>
+      </c>
+      <c r="AH23" s="61">
+        <v>36964.922899999998</v>
+      </c>
+      <c r="AI23" s="34">
+        <v>10.004899999999999</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>366904</v>
+      </c>
+      <c r="AK23" s="9">
+        <v>36672.430500000002</v>
+      </c>
+      <c r="AL23" s="62">
+        <v>10.0045</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>355022</v>
+      </c>
+      <c r="AN23" s="61">
+        <v>35486.231099999997</v>
+      </c>
+      <c r="AO23" s="34">
+        <v>10.004899999999999</v>
+      </c>
+      <c r="AP23" s="8">
+        <v>381621</v>
+      </c>
+      <c r="AQ23" s="9">
+        <v>38143.409699999997</v>
+      </c>
+      <c r="AR23" s="105">
         <f t="shared" si="4"/>
-        <v>25225.505287779131</v>
-      </c>
-      <c r="AF23" s="33">
-        <v>10.0037</v>
-      </c>
-      <c r="AG23" s="6">
-        <v>269786</v>
-      </c>
-      <c r="AH23" s="118">
+        <v>35221.307000000001</v>
+      </c>
+      <c r="AS23" s="84">
         <f t="shared" si="5"/>
-        <v>26968.621610004298</v>
-      </c>
-      <c r="AI23" s="10">
-        <v>10.004899999999999</v>
-      </c>
-      <c r="AJ23" s="6">
-        <v>236904</v>
-      </c>
-      <c r="AK23" s="117">
+        <v>38143.409699999997</v>
+      </c>
+      <c r="AT23" s="77">
         <f t="shared" si="6"/>
-        <v>23678.797389279254</v>
-      </c>
-      <c r="AL23" s="33">
-        <v>10.0045</v>
-      </c>
-      <c r="AM23" s="6">
-        <v>235022</v>
-      </c>
-      <c r="AN23" s="118">
+        <v>36497.660239999997</v>
+      </c>
+      <c r="AU23" s="64">
         <f t="shared" si="7"/>
-        <v>23491.628767054826</v>
-      </c>
-      <c r="AO23" s="10">
-        <v>10.004799999999999</v>
-      </c>
-      <c r="AP23" s="6">
-        <v>230407</v>
-      </c>
-      <c r="AQ23" s="118">
-        <f t="shared" si="8"/>
-        <v>23029.645770030387</v>
-      </c>
-      <c r="AR23" s="121">
-        <f t="shared" si="9"/>
-        <v>23029.645770030387</v>
-      </c>
-      <c r="AS23" s="88">
-        <f t="shared" si="10"/>
-        <v>26968.621610004298</v>
-      </c>
-      <c r="AT23" s="80">
-        <f t="shared" si="11"/>
-        <v>24478.83976482958</v>
-      </c>
-      <c r="AU23" s="63">
-        <f t="shared" si="12"/>
-        <v>1617.9724681749708</v>
-      </c>
-      <c r="AW23" s="81" t="e">
+        <v>1184.2124831296812</v>
+      </c>
+      <c r="AW23" s="76" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:49">
-      <c r="A24" s="132">
+      <c r="A24" s="156">
         <v>4</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="129">
+      <c r="C24" s="159">
         <v>2</v>
       </c>
-      <c r="D24" s="144">
+      <c r="D24" s="162">
         <v>3</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -5194,99 +4971,94 @@
       <c r="V24" s="38">
         <v>2629.8737000000001</v>
       </c>
-      <c r="W24" s="87">
+      <c r="W24" s="81">
         <f>MIN(J24,M24,P24,S24,V24)</f>
         <v>2611.1215999999999</v>
       </c>
-      <c r="X24" s="79">
-        <f t="shared" ref="X24:X30" si="14">MAX(J24,M24,P24,S24,V24)</f>
+      <c r="X24" s="74">
+        <f t="shared" ref="X24:X30" si="9">MAX(J24,M24,P24,S24,V24)</f>
         <v>2629.9947999999999</v>
       </c>
-      <c r="Y24" s="87">
-        <f t="shared" ref="Y24:Y30" si="15">AVERAGE(J24,M24,P24,S24,V24)</f>
+      <c r="Y24" s="81">
+        <f t="shared" ref="Y24:Y30" si="10">AVERAGE(J24,M24,P24,S24,V24)</f>
         <v>2624.4959800000001</v>
       </c>
-      <c r="Z24" s="79">
-        <f t="shared" ref="Z24:Z30" si="16">_xlfn.STDEV.S(J24,M24,P24,S24,V24)</f>
+      <c r="Z24" s="74">
+        <f t="shared" ref="Z24:Z30" si="11">_xlfn.STDEV.S(J24,M24,P24,S24,V24)</f>
         <v>7.816775380359883</v>
       </c>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="36">
+      <c r="AB24" s="154"/>
+      <c r="AC24" s="58">
         <v>10.000299999999999</v>
       </c>
-      <c r="AD24" s="37">
+      <c r="AD24" s="56">
         <v>26151</v>
       </c>
-      <c r="AE24" s="57">
+      <c r="AE24" s="59">
+        <v>2615.0214999999998</v>
+      </c>
+      <c r="AF24" s="60">
+        <v>10.000299999999999</v>
+      </c>
+      <c r="AG24" s="56">
+        <v>26200</v>
+      </c>
+      <c r="AH24" s="57">
+        <v>2619.9214000000002</v>
+      </c>
+      <c r="AI24" s="58">
+        <v>10.000400000000001</v>
+      </c>
+      <c r="AJ24" s="56">
+        <v>26239</v>
+      </c>
+      <c r="AK24" s="59">
+        <v>2623.7950000000001</v>
+      </c>
+      <c r="AL24" s="60">
+        <v>10.0001</v>
+      </c>
+      <c r="AM24" s="56">
+        <v>26245</v>
+      </c>
+      <c r="AN24" s="57">
+        <v>2624.4737</v>
+      </c>
+      <c r="AO24" s="58">
+        <v>10.0002</v>
+      </c>
+      <c r="AP24" s="56">
+        <v>25996</v>
+      </c>
+      <c r="AQ24" s="59">
+        <v>2599.5479999999998</v>
+      </c>
+      <c r="AR24" s="67">
         <f t="shared" si="4"/>
-        <v>2615.0215493535197</v>
-      </c>
-      <c r="AF24" s="36">
-        <v>10.000299999999999</v>
-      </c>
-      <c r="AG24" s="37">
-        <v>26200</v>
-      </c>
-      <c r="AH24" s="59">
+        <v>2599.5479999999998</v>
+      </c>
+      <c r="AS24" s="66">
         <f t="shared" si="5"/>
-        <v>2619.9214023579293</v>
-      </c>
-      <c r="AI24" s="44">
-        <v>10.000400000000001</v>
-      </c>
-      <c r="AJ24" s="37">
-        <v>26239</v>
-      </c>
-      <c r="AK24" s="57">
+        <v>2624.4737</v>
+      </c>
+      <c r="AT24" s="65">
         <f t="shared" si="6"/>
-        <v>2623.795048198072</v>
-      </c>
-      <c r="AL24" s="36">
-        <v>10.0001</v>
-      </c>
-      <c r="AM24" s="37">
-        <v>26245</v>
-      </c>
-      <c r="AN24" s="59">
+        <v>2616.5519200000003</v>
+      </c>
+      <c r="AU24" s="67">
         <f t="shared" si="7"/>
-        <v>2624.4737552624474</v>
-      </c>
-      <c r="AO24" s="44">
-        <v>10.0002</v>
-      </c>
-      <c r="AP24" s="37">
-        <v>25996</v>
-      </c>
-      <c r="AQ24" s="59">
-        <f t="shared" si="8"/>
-        <v>2599.5480090398191</v>
-      </c>
-      <c r="AR24" s="75">
-        <f t="shared" si="9"/>
-        <v>2599.5480090398191</v>
-      </c>
-      <c r="AS24" s="74">
-        <f t="shared" si="10"/>
-        <v>2624.4737552624474</v>
-      </c>
-      <c r="AT24" s="73">
-        <f t="shared" si="11"/>
-        <v>2616.5519528423574</v>
-      </c>
-      <c r="AU24" s="75">
-        <f t="shared" si="12"/>
-        <v>10.223096566493831</v>
-      </c>
-      <c r="AW24" s="79" t="e">
+        <v>10.223082735506088</v>
+      </c>
+      <c r="AW24" s="74" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:49">
-      <c r="A25" s="133"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="145"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="28" t="s">
         <v>2</v>
       </c>
@@ -5341,99 +5113,94 @@
       <c r="V25" s="38">
         <v>1016.6085</v>
       </c>
-      <c r="W25" s="93">
-        <f t="shared" ref="W24:W30" si="17">MIN(J25,M25,P25,S25,V25)</f>
+      <c r="W25" s="86">
+        <f t="shared" ref="W24:W30" si="12">MIN(J25,M25,P25,S25,V25)</f>
         <v>1007.6992</v>
       </c>
-      <c r="X25" s="92">
-        <f t="shared" si="14"/>
+      <c r="X25" s="85">
+        <f t="shared" si="9"/>
         <v>1016.6085</v>
       </c>
-      <c r="Y25" s="93">
-        <f t="shared" si="15"/>
+      <c r="Y25" s="86">
+        <f t="shared" si="10"/>
         <v>1014.1528000000001</v>
       </c>
-      <c r="Z25" s="92">
-        <f t="shared" si="16"/>
+      <c r="Z25" s="85">
+        <f t="shared" si="11"/>
         <v>3.7747847971771691</v>
       </c>
-      <c r="AB25" s="153"/>
+      <c r="AB25" s="154"/>
       <c r="AC25" s="36">
         <v>10.0007</v>
       </c>
       <c r="AD25" s="37">
-        <v>10100</v>
-      </c>
-      <c r="AE25" s="57">
-        <f t="shared" si="4"/>
-        <v>1009.9293049486536</v>
-      </c>
-      <c r="AF25" s="36">
+        <v>10156</v>
+      </c>
+      <c r="AE25" s="38">
+        <v>1015.5289</v>
+      </c>
+      <c r="AF25" s="44">
         <v>10.0008</v>
       </c>
       <c r="AG25" s="37">
         <v>10146</v>
       </c>
-      <c r="AH25" s="59">
-        <f t="shared" si="5"/>
-        <v>1014.5188384929206</v>
-      </c>
-      <c r="AI25" s="44">
+      <c r="AH25" s="45">
+        <v>1014.5188000000001</v>
+      </c>
+      <c r="AI25" s="36">
         <v>10.000400000000001</v>
       </c>
       <c r="AJ25" s="37">
-        <v>10100</v>
-      </c>
-      <c r="AK25" s="57">
-        <f>AJ25/AI25</f>
-        <v>1009.9596016159353</v>
-      </c>
-      <c r="AL25" s="36">
+        <v>10135</v>
+      </c>
+      <c r="AK25" s="38">
+        <v>1013.4594</v>
+      </c>
+      <c r="AL25" s="44">
         <v>10.000500000000001</v>
       </c>
       <c r="AM25" s="37">
         <v>10155</v>
       </c>
-      <c r="AN25" s="59">
-        <f t="shared" si="7"/>
-        <v>1015.4492275386231</v>
-      </c>
-      <c r="AO25" s="44">
+      <c r="AN25" s="45">
+        <v>1015.4492</v>
+      </c>
+      <c r="AO25" s="36">
         <v>10.000999999999999</v>
       </c>
       <c r="AP25" s="37">
         <v>10150</v>
       </c>
-      <c r="AQ25" s="59">
-        <f t="shared" si="8"/>
-        <v>1014.8985101489851</v>
-      </c>
-      <c r="AR25" s="75">
-        <f t="shared" si="9"/>
-        <v>1009.9293049486536</v>
-      </c>
-      <c r="AS25" s="74">
-        <f t="shared" si="10"/>
-        <v>1015.4492275386231</v>
-      </c>
-      <c r="AT25" s="73">
-        <f t="shared" si="11"/>
-        <v>1012.9510965490235</v>
-      </c>
-      <c r="AU25" s="75">
-        <f t="shared" si="12"/>
-        <v>2.7645596115803923</v>
-      </c>
-      <c r="AW25" s="92" t="e">
+      <c r="AQ25" s="38">
+        <v>1014.8985</v>
+      </c>
+      <c r="AR25" s="70">
+        <f t="shared" si="4"/>
+        <v>1013.4594</v>
+      </c>
+      <c r="AS25" s="69">
+        <f t="shared" si="5"/>
+        <v>1015.5289</v>
+      </c>
+      <c r="AT25" s="68">
+        <f t="shared" si="6"/>
+        <v>1014.7709600000001</v>
+      </c>
+      <c r="AU25" s="70">
+        <f t="shared" si="7"/>
+        <v>0.84180212817504496</v>
+      </c>
+      <c r="AW25" s="85" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:49">
-      <c r="A26" s="133"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="145"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="163"/>
       <c r="E26" s="29" t="s">
         <v>17</v>
       </c>
@@ -5488,99 +5255,94 @@
       <c r="V26" s="53">
         <v>29.8855</v>
       </c>
-      <c r="W26" s="96">
-        <f t="shared" si="17"/>
+      <c r="W26" s="88">
+        <f t="shared" si="12"/>
         <v>29.8855</v>
       </c>
-      <c r="X26" s="95">
-        <f t="shared" si="14"/>
+      <c r="X26" s="87">
+        <f t="shared" si="9"/>
         <v>31.6676</v>
       </c>
-      <c r="Y26" s="96">
-        <f t="shared" si="15"/>
+      <c r="Y26" s="88">
+        <f t="shared" si="10"/>
         <v>31.128340000000001</v>
       </c>
-      <c r="Z26" s="95">
-        <f t="shared" si="16"/>
+      <c r="Z26" s="87">
+        <f t="shared" si="11"/>
         <v>0.71105962689496027</v>
       </c>
-      <c r="AB26" s="153"/>
+      <c r="AB26" s="154"/>
       <c r="AC26" s="51">
         <v>2.8660000000000001</v>
       </c>
       <c r="AD26" s="52">
-        <v>90</v>
-      </c>
-      <c r="AE26" s="115">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="53">
+        <v>34.891800000000003</v>
+      </c>
+      <c r="AF26" s="54">
+        <v>2.9885000000000002</v>
+      </c>
+      <c r="AG26" s="52">
+        <v>100</v>
+      </c>
+      <c r="AH26" s="55">
+        <v>33.461599999999997</v>
+      </c>
+      <c r="AI26" s="51">
+        <v>2.9133</v>
+      </c>
+      <c r="AJ26" s="52">
+        <v>100</v>
+      </c>
+      <c r="AK26" s="53">
+        <v>34.325299999999999</v>
+      </c>
+      <c r="AL26" s="54">
+        <v>2.8797000000000001</v>
+      </c>
+      <c r="AM26" s="52">
+        <v>100</v>
+      </c>
+      <c r="AN26" s="55">
+        <v>34.7258</v>
+      </c>
+      <c r="AO26" s="51">
+        <v>2.8845000000000001</v>
+      </c>
+      <c r="AP26" s="52">
+        <v>100</v>
+      </c>
+      <c r="AQ26" s="53">
+        <v>34.667999999999999</v>
+      </c>
+      <c r="AR26" s="73">
         <f t="shared" si="4"/>
-        <v>31.402651779483598</v>
-      </c>
-      <c r="AF26" s="51">
-        <v>2.9885000000000002</v>
-      </c>
-      <c r="AG26" s="52">
-        <v>90</v>
-      </c>
-      <c r="AH26" s="116">
+        <v>33.461599999999997</v>
+      </c>
+      <c r="AS26" s="72">
         <f t="shared" si="5"/>
-        <v>30.11544252969717</v>
-      </c>
-      <c r="AI26" s="54">
-        <v>2.9133</v>
-      </c>
-      <c r="AJ26" s="52">
-        <v>80</v>
-      </c>
-      <c r="AK26" s="115">
+        <v>34.891800000000003</v>
+      </c>
+      <c r="AT26" s="71">
         <f t="shared" si="6"/>
-        <v>27.460268424123846</v>
-      </c>
-      <c r="AL26" s="51">
-        <v>2.8797000000000001</v>
-      </c>
-      <c r="AM26" s="52">
-        <v>80</v>
-      </c>
-      <c r="AN26" s="116">
+        <v>34.414499999999997</v>
+      </c>
+      <c r="AU26" s="73">
         <f t="shared" si="7"/>
-        <v>27.780671597735875</v>
-      </c>
-      <c r="AO26" s="54">
-        <v>2.8845000000000001</v>
-      </c>
-      <c r="AP26" s="52">
-        <v>90</v>
-      </c>
-      <c r="AQ26" s="116">
-        <f t="shared" si="8"/>
-        <v>31.201248049921997</v>
-      </c>
-      <c r="AR26" s="78">
-        <f t="shared" si="9"/>
-        <v>27.460268424123846</v>
-      </c>
-      <c r="AS26" s="77">
-        <f t="shared" si="10"/>
-        <v>31.402651779483598</v>
-      </c>
-      <c r="AT26" s="76">
-        <f t="shared" si="11"/>
-        <v>29.592056476192493</v>
-      </c>
-      <c r="AU26" s="78">
-        <f t="shared" si="12"/>
-        <v>1.8686439810133029</v>
-      </c>
-      <c r="AW26" s="95" t="e">
+        <v>0.57117429038779577</v>
+      </c>
+      <c r="AW26" s="87" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:49">
-      <c r="A27" s="133"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="145"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="29" t="s">
         <v>17</v>
       </c>
@@ -5635,99 +5397,94 @@
       <c r="V27" s="53">
         <v>14.3188</v>
       </c>
-      <c r="W27" s="101">
-        <f t="shared" si="17"/>
+      <c r="W27" s="92">
+        <f t="shared" si="12"/>
         <v>12.803699999999999</v>
       </c>
-      <c r="X27" s="100">
-        <f t="shared" si="14"/>
+      <c r="X27" s="91">
+        <f t="shared" si="9"/>
         <v>14.3188</v>
       </c>
-      <c r="Y27" s="101">
-        <f t="shared" si="15"/>
+      <c r="Y27" s="92">
+        <f t="shared" si="10"/>
         <v>13.901580000000001</v>
       </c>
-      <c r="Z27" s="100">
-        <f t="shared" si="16"/>
+      <c r="Z27" s="91">
+        <f t="shared" si="11"/>
         <v>0.62018456688311785</v>
       </c>
-      <c r="AB27" s="153"/>
+      <c r="AB27" s="154"/>
       <c r="AC27" s="51">
         <v>3.6435</v>
       </c>
       <c r="AD27" s="52">
-        <v>40</v>
-      </c>
-      <c r="AE27" s="115">
+        <v>50</v>
+      </c>
+      <c r="AE27" s="53">
+        <v>13.723000000000001</v>
+      </c>
+      <c r="AF27" s="54">
+        <v>3.2515999999999998</v>
+      </c>
+      <c r="AG27" s="52">
+        <v>50</v>
+      </c>
+      <c r="AH27" s="55">
+        <v>15.377000000000001</v>
+      </c>
+      <c r="AI27" s="51">
+        <v>3.2605</v>
+      </c>
+      <c r="AJ27" s="52">
+        <v>50</v>
+      </c>
+      <c r="AK27" s="53">
+        <v>15.335000000000001</v>
+      </c>
+      <c r="AL27" s="54">
+        <v>3.4321000000000002</v>
+      </c>
+      <c r="AM27" s="52">
+        <v>50</v>
+      </c>
+      <c r="AN27" s="55">
+        <v>14.568300000000001</v>
+      </c>
+      <c r="AO27" s="51">
+        <v>3.2785000000000002</v>
+      </c>
+      <c r="AP27" s="52">
+        <v>50</v>
+      </c>
+      <c r="AQ27" s="53">
+        <v>15.2508</v>
+      </c>
+      <c r="AR27" s="73">
         <f t="shared" si="4"/>
-        <v>10.978454782489365</v>
-      </c>
-      <c r="AF27" s="51">
-        <v>3.2515999999999998</v>
-      </c>
-      <c r="AG27" s="52">
-        <v>40</v>
-      </c>
-      <c r="AH27" s="116">
+        <v>13.723000000000001</v>
+      </c>
+      <c r="AS27" s="72">
         <f t="shared" si="5"/>
-        <v>12.301636117603643</v>
-      </c>
-      <c r="AI27" s="54">
-        <v>3.2605</v>
-      </c>
-      <c r="AJ27" s="52">
-        <v>40</v>
-      </c>
-      <c r="AK27" s="115">
-        <f t="shared" si="6"/>
-        <v>12.268057046465266</v>
-      </c>
-      <c r="AL27" s="51">
-        <v>3.4321000000000002</v>
-      </c>
-      <c r="AM27" s="52">
-        <v>40</v>
-      </c>
-      <c r="AN27" s="116">
+        <v>15.377000000000001</v>
+      </c>
+      <c r="AT27" s="71">
+        <f>AVERAGE(AE27,AH27,AK27,AN27,AQ27)</f>
+        <v>14.850820000000002</v>
+      </c>
+      <c r="AU27" s="73">
         <f t="shared" si="7"/>
-        <v>11.654672066664723</v>
-      </c>
-      <c r="AO27" s="54">
-        <v>3.2785000000000002</v>
-      </c>
-      <c r="AP27" s="52">
-        <v>40</v>
-      </c>
-      <c r="AQ27" s="116">
-        <f t="shared" si="8"/>
-        <v>12.200701540338569</v>
-      </c>
-      <c r="AR27" s="78">
-        <f t="shared" si="9"/>
-        <v>10.978454782489365</v>
-      </c>
-      <c r="AS27" s="77">
-        <f t="shared" si="10"/>
-        <v>12.301636117603643</v>
-      </c>
-      <c r="AT27" s="76">
-        <f>AVERAGE(AE27,AH27,AK27,AN27,AQ27)</f>
-        <v>11.880704310712314</v>
-      </c>
-      <c r="AU27" s="78">
-        <f t="shared" si="12"/>
-        <v>0.56893952698074535</v>
-      </c>
-      <c r="AW27" s="100" t="e">
+        <v>0.71117423462889862</v>
+      </c>
+      <c r="AW27" s="91" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:49">
-      <c r="A28" s="133"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="145"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="27" t="s">
         <v>21</v>
       </c>
@@ -5782,99 +5539,94 @@
       <c r="V28" s="7">
         <v>27037.862300000001</v>
       </c>
-      <c r="W28" s="99">
-        <f t="shared" si="17"/>
+      <c r="W28" s="90">
+        <f t="shared" si="12"/>
         <v>27037.862300000001</v>
       </c>
-      <c r="X28" s="98">
-        <f t="shared" si="14"/>
+      <c r="X28" s="89">
+        <f t="shared" si="9"/>
         <v>29347.324199999999</v>
       </c>
-      <c r="Y28" s="99">
-        <f t="shared" si="15"/>
+      <c r="Y28" s="90">
+        <f t="shared" si="10"/>
         <v>28398.31064</v>
       </c>
-      <c r="Z28" s="98">
-        <f t="shared" si="16"/>
+      <c r="Z28" s="89">
+        <f t="shared" si="11"/>
         <v>865.36187168198126</v>
       </c>
-      <c r="AB28" s="153"/>
+      <c r="AB28" s="154"/>
       <c r="AC28" s="33">
         <v>10.004300000000001</v>
       </c>
       <c r="AD28" s="6">
-        <v>294654</v>
-      </c>
-      <c r="AE28" s="117">
-        <f>AD28/AC28</f>
-        <v>29452.735323810761</v>
-      </c>
-      <c r="AF28" s="33">
+        <v>414654</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>41447.577499999999</v>
+      </c>
+      <c r="AF28" s="10">
         <v>10.0046</v>
       </c>
       <c r="AG28" s="6">
-        <v>233354</v>
-      </c>
-      <c r="AH28" s="118">
+        <v>433354</v>
+      </c>
+      <c r="AH28" s="35">
+        <v>43315.474800000004</v>
+      </c>
+      <c r="AI28" s="33">
+        <v>10.0054</v>
+      </c>
+      <c r="AJ28" s="6">
+        <v>420627</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>42039.998399999997</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>10.0037</v>
+      </c>
+      <c r="AM28" s="6">
+        <v>420425</v>
+      </c>
+      <c r="AN28" s="35">
+        <v>42026.95</v>
+      </c>
+      <c r="AO28" s="33">
+        <v>10.004300000000001</v>
+      </c>
+      <c r="AP28" s="6">
+        <v>383861</v>
+      </c>
+      <c r="AQ28" s="7">
+        <v>38369.601000000002</v>
+      </c>
+      <c r="AR28" s="104">
+        <f t="shared" si="4"/>
+        <v>38369.601000000002</v>
+      </c>
+      <c r="AS28" s="82">
         <f t="shared" si="5"/>
-        <v>23324.67065150031</v>
-      </c>
-      <c r="AI28" s="10">
-        <v>10.0054</v>
-      </c>
-      <c r="AJ28" s="6">
-        <v>220627</v>
-      </c>
-      <c r="AK28" s="117">
+        <v>43315.474800000004</v>
+      </c>
+      <c r="AT28" s="75">
         <f t="shared" si="6"/>
-        <v>22050.792572011116</v>
-      </c>
-      <c r="AL28" s="33">
-        <v>10.0037</v>
-      </c>
-      <c r="AM28" s="6">
-        <v>220425</v>
-      </c>
-      <c r="AN28" s="118">
+        <v>41439.920339999997</v>
+      </c>
+      <c r="AU28" s="63">
         <f t="shared" si="7"/>
-        <v>22034.347291502145</v>
-      </c>
-      <c r="AO28" s="10">
-        <v>10.004300000000001</v>
-      </c>
-      <c r="AP28" s="6">
-        <v>203861</v>
-      </c>
-      <c r="AQ28" s="118">
-        <f t="shared" si="8"/>
-        <v>20377.337744769749</v>
-      </c>
-      <c r="AR28" s="121">
-        <f t="shared" si="9"/>
-        <v>20377.337744769749</v>
-      </c>
-      <c r="AS28" s="88">
-        <f t="shared" si="10"/>
-        <v>29452.735323810761</v>
-      </c>
-      <c r="AT28" s="80">
-        <f t="shared" si="11"/>
-        <v>23447.976716718818</v>
-      </c>
-      <c r="AU28" s="63">
-        <f t="shared" si="12"/>
-        <v>3516.0924937093714</v>
-      </c>
-      <c r="AW28" s="98" t="e">
+        <v>1847.249408845234</v>
+      </c>
+      <c r="AW28" s="89" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:49">
-      <c r="A29" s="133"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="145"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="29" t="s">
         <v>21</v>
       </c>
@@ -5929,99 +5681,94 @@
       <c r="V29" s="7">
         <v>26689.1486</v>
       </c>
-      <c r="W29" s="88">
-        <f t="shared" si="17"/>
+      <c r="W29" s="82">
+        <f t="shared" si="12"/>
         <v>22995.831600000001</v>
       </c>
-      <c r="X29" s="80">
-        <f t="shared" si="14"/>
+      <c r="X29" s="75">
+        <f t="shared" si="9"/>
         <v>26689.1486</v>
       </c>
-      <c r="Y29" s="88">
-        <f t="shared" si="15"/>
+      <c r="Y29" s="82">
+        <f t="shared" si="10"/>
         <v>25610.720420000001</v>
       </c>
-      <c r="Z29" s="80">
-        <f t="shared" si="16"/>
+      <c r="Z29" s="75">
+        <f t="shared" si="11"/>
         <v>1501.6314823540463</v>
       </c>
-      <c r="AB29" s="153"/>
+      <c r="AB29" s="154"/>
       <c r="AC29" s="33">
         <v>10.0052</v>
       </c>
       <c r="AD29" s="6">
-        <v>254319</v>
-      </c>
-      <c r="AE29" s="117">
+        <v>294319</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>29416.603299999999</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>10.003500000000001</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>281803</v>
+      </c>
+      <c r="AH29" s="35">
+        <v>28170.440299999998</v>
+      </c>
+      <c r="AI29" s="33">
+        <v>10.007</v>
+      </c>
+      <c r="AJ29" s="6">
+        <v>289213</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>28901.069200000002</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>10.004799999999999</v>
+      </c>
+      <c r="AM29" s="6">
+        <v>262849</v>
+      </c>
+      <c r="AN29" s="35">
+        <v>26272.2893</v>
+      </c>
+      <c r="AO29" s="33">
+        <v>10.008599999999999</v>
+      </c>
+      <c r="AP29" s="6">
+        <v>273473</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>27323.801500000001</v>
+      </c>
+      <c r="AR29" s="104">
         <f t="shared" si="4"/>
-        <v>25418.682285211689</v>
-      </c>
-      <c r="AF29" s="33">
-        <v>10.003500000000001</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>241803</v>
-      </c>
-      <c r="AH29" s="118">
+        <v>26272.2893</v>
+      </c>
+      <c r="AS29" s="82">
         <f t="shared" si="5"/>
-        <v>24171.839856050381</v>
-      </c>
-      <c r="AI29" s="10">
-        <v>10.007</v>
-      </c>
-      <c r="AJ29" s="6">
-        <v>259213</v>
-      </c>
-      <c r="AK29" s="117">
+        <v>29416.603299999999</v>
+      </c>
+      <c r="AT29" s="75">
         <f t="shared" si="6"/>
-        <v>25903.167782552213</v>
-      </c>
-      <c r="AL29" s="33">
-        <v>10.004799999999999</v>
-      </c>
-      <c r="AM29" s="6">
-        <v>222849</v>
-      </c>
-      <c r="AN29" s="118">
+        <v>28016.84072</v>
+      </c>
+      <c r="AU29" s="63">
         <f t="shared" si="7"/>
-        <v>22274.208379977612</v>
-      </c>
-      <c r="AO29" s="10">
-        <v>10.008599999999999</v>
-      </c>
-      <c r="AP29" s="6">
-        <v>243473</v>
-      </c>
-      <c r="AQ29" s="118">
-        <f t="shared" si="8"/>
-        <v>24326.379313790141</v>
-      </c>
-      <c r="AR29" s="121">
-        <f t="shared" si="9"/>
-        <v>22274.208379977612</v>
-      </c>
-      <c r="AS29" s="88">
-        <f t="shared" si="10"/>
-        <v>25903.167782552213</v>
-      </c>
-      <c r="AT29" s="80">
-        <f t="shared" si="11"/>
-        <v>24418.855523516409</v>
-      </c>
-      <c r="AU29" s="63">
-        <f t="shared" si="12"/>
-        <v>1402.846783807322</v>
-      </c>
-      <c r="AW29" s="80" t="e">
+        <v>1253.8491868711487</v>
+      </c>
+      <c r="AW29" s="75" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:49">
-      <c r="A30" s="134"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="146"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="164"/>
       <c r="E30" s="28" t="s">
         <v>21</v>
       </c>
@@ -6076,105 +5823,100 @@
       <c r="V30" s="7">
         <v>18858.5131</v>
       </c>
-      <c r="W30" s="90">
-        <f t="shared" si="17"/>
+      <c r="W30" s="84">
+        <f t="shared" si="12"/>
         <v>17354.2372</v>
       </c>
-      <c r="X30" s="82">
-        <f t="shared" si="14"/>
+      <c r="X30" s="77">
+        <f t="shared" si="9"/>
         <v>19749.655200000001</v>
       </c>
-      <c r="Y30" s="90">
-        <f t="shared" si="15"/>
+      <c r="Y30" s="84">
+        <f t="shared" si="10"/>
         <v>18673.11694</v>
       </c>
-      <c r="Z30" s="82">
-        <f t="shared" si="16"/>
+      <c r="Z30" s="77">
+        <f t="shared" si="11"/>
         <v>856.61532237872029</v>
       </c>
-      <c r="AB30" s="154"/>
+      <c r="AB30" s="155"/>
       <c r="AC30" s="34">
         <v>10.005100000000001</v>
       </c>
       <c r="AD30" s="8">
-        <v>187262</v>
-      </c>
-      <c r="AE30" s="119">
-        <f t="shared" si="4"/>
-        <v>18716.654506201838</v>
-      </c>
-      <c r="AF30" s="34">
+        <v>387262</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>38706.459699999999</v>
+      </c>
+      <c r="AF30" s="62">
         <v>10.007300000000001</v>
       </c>
       <c r="AG30" s="8">
-        <v>131179</v>
-      </c>
-      <c r="AH30" s="120">
-        <f t="shared" si="5"/>
-        <v>13108.330918429545</v>
-      </c>
-      <c r="AI30" s="62">
+        <v>331179</v>
+      </c>
+      <c r="AH30" s="61">
+        <v>33093.741499999996</v>
+      </c>
+      <c r="AI30" s="34">
         <v>10.0036</v>
       </c>
       <c r="AJ30" s="8">
-        <v>154538</v>
-      </c>
-      <c r="AK30" s="119">
-        <f t="shared" si="6"/>
-        <v>15448.238634091726</v>
-      </c>
-      <c r="AL30" s="34">
+        <v>354538</v>
+      </c>
+      <c r="AK30" s="9">
+        <v>35441.0412</v>
+      </c>
+      <c r="AL30" s="62">
         <v>10.0053</v>
       </c>
       <c r="AM30" s="8">
         <v>377900</v>
       </c>
-      <c r="AN30" s="120">
-        <f t="shared" si="7"/>
-        <v>37769.981909587921</v>
-      </c>
-      <c r="AO30" s="62">
+      <c r="AN30" s="61">
+        <v>37769.981899999999</v>
+      </c>
+      <c r="AO30" s="34">
         <v>10.004799999999999</v>
       </c>
       <c r="AP30" s="8">
         <v>379266</v>
       </c>
-      <c r="AQ30" s="120">
-        <f t="shared" si="8"/>
-        <v>37908.403966096274</v>
-      </c>
-      <c r="AR30" s="122">
-        <f t="shared" si="9"/>
-        <v>13108.330918429545</v>
-      </c>
-      <c r="AS30" s="90">
-        <f t="shared" si="10"/>
-        <v>37908.403966096274</v>
-      </c>
-      <c r="AT30" s="82">
-        <f t="shared" si="11"/>
-        <v>24590.321986881459</v>
+      <c r="AQ30" s="9">
+        <v>37908.403899999998</v>
+      </c>
+      <c r="AR30" s="105">
+        <f t="shared" si="4"/>
+        <v>33093.741499999996</v>
+      </c>
+      <c r="AS30" s="84">
+        <f t="shared" si="5"/>
+        <v>38706.459699999999</v>
+      </c>
+      <c r="AT30" s="77">
+        <f t="shared" si="6"/>
+        <v>36583.925640000001</v>
       </c>
       <c r="AU30" s="64">
-        <f t="shared" si="12"/>
-        <v>12257.53360062944</v>
-      </c>
-      <c r="AW30" s="82" t="e">
+        <f t="shared" si="7"/>
+        <v>2299.6572094151102</v>
+      </c>
+      <c r="AW30" s="77" t="e">
         <f>_xlfn.STDEV.S(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:49">
-      <c r="A31" s="133">
+      <c r="A31" s="157">
         <v>5</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="130">
+      <c r="C31" s="160">
         <v>2</v>
       </c>
-      <c r="D31" s="130">
+      <c r="D31" s="160">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -6231,28 +5973,28 @@
       <c r="V31" s="38">
         <v>2586.9965000000002</v>
       </c>
-      <c r="W31" s="71">
-        <f t="shared" ref="W31:W37" si="18">MIN(J31,M31,P31,S31,V31)</f>
+      <c r="W31" s="66">
+        <f t="shared" ref="W31:W37" si="13">MIN(J31,M31,P31,S31,V31)</f>
         <v>2451.5282999999999</v>
       </c>
-      <c r="X31" s="70">
-        <f t="shared" ref="X31:X37" si="19">MAX(J31,M31,P31,S31,V31)</f>
+      <c r="X31" s="65">
+        <f t="shared" ref="X31:X37" si="14">MAX(J31,M31,P31,S31,V31)</f>
         <v>2607.4695999999999</v>
       </c>
-      <c r="Y31" s="71">
-        <f t="shared" ref="Y31:Y37" si="20">AVERAGE(J31,M31,P31,S31,V31)</f>
+      <c r="Y31" s="66">
+        <f t="shared" ref="Y31:Y37" si="15">AVERAGE(J31,M31,P31,S31,V31)</f>
         <v>2567.6521200000002</v>
       </c>
-      <c r="Z31" s="70">
-        <f t="shared" ref="Z31:Z51" si="21">_xlfn.STDEV.S(J31,M31,P31,S31,V31)</f>
+      <c r="Z31" s="65">
+        <f t="shared" ref="Z31:Z51" si="16">_xlfn.STDEV.S(J31,M31,P31,S31,V31)</f>
         <v>65.542637152902259</v>
       </c>
     </row>
     <row r="32" spans="1:49">
-      <c r="A32" s="133"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="5" t="s">
         <v>2</v>
       </c>
@@ -6307,28 +6049,28 @@
       <c r="V32" s="38">
         <v>1012.4987</v>
       </c>
-      <c r="W32" s="110">
-        <f t="shared" si="18"/>
+      <c r="W32" s="98">
+        <f t="shared" si="13"/>
         <v>987.67160000000001</v>
       </c>
-      <c r="X32" s="109">
-        <f t="shared" si="19"/>
+      <c r="X32" s="97">
+        <f t="shared" si="14"/>
         <v>1014.9391000000001</v>
       </c>
-      <c r="Y32" s="110">
-        <f t="shared" si="20"/>
+      <c r="Y32" s="98">
+        <f t="shared" si="15"/>
         <v>1003.76386</v>
       </c>
-      <c r="Z32" s="109">
-        <f t="shared" si="21"/>
+      <c r="Z32" s="97">
+        <f t="shared" si="16"/>
         <v>12.339416465254754</v>
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="133"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
@@ -6383,28 +6125,28 @@
       <c r="V33" s="53">
         <v>29.5595</v>
       </c>
-      <c r="W33" s="104">
-        <f t="shared" si="18"/>
+      <c r="W33" s="94">
+        <f t="shared" si="13"/>
         <v>17.4816</v>
       </c>
-      <c r="X33" s="103">
-        <f t="shared" si="19"/>
+      <c r="X33" s="93">
+        <f t="shared" si="14"/>
         <v>29.5595</v>
       </c>
-      <c r="Y33" s="104">
-        <f t="shared" si="20"/>
+      <c r="Y33" s="94">
+        <f t="shared" si="15"/>
         <v>25.89434</v>
       </c>
-      <c r="Z33" s="103">
-        <f t="shared" si="21"/>
+      <c r="Z33" s="93">
+        <f t="shared" si="16"/>
         <v>5.2172122218671584</v>
       </c>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="133"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
@@ -6459,28 +6201,28 @@
       <c r="V34" s="53">
         <v>1.2248000000000001</v>
       </c>
-      <c r="W34" s="107">
-        <f t="shared" si="18"/>
+      <c r="W34" s="96">
+        <f t="shared" si="13"/>
         <v>1.2009000000000001</v>
       </c>
-      <c r="X34" s="106">
-        <f t="shared" si="19"/>
+      <c r="X34" s="95">
+        <f t="shared" si="14"/>
         <v>1.3281000000000001</v>
       </c>
-      <c r="Y34" s="107">
-        <f t="shared" si="20"/>
+      <c r="Y34" s="96">
+        <f t="shared" si="15"/>
         <v>1.2398800000000001</v>
       </c>
-      <c r="Z34" s="106">
-        <f t="shared" si="21"/>
+      <c r="Z34" s="95">
+        <f t="shared" si="16"/>
         <v>5.0282322937589115E-2</v>
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="133"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
@@ -6535,28 +6277,28 @@
       <c r="V35" s="7">
         <v>29592.776900000001</v>
       </c>
-      <c r="W35" s="113">
-        <f t="shared" si="18"/>
+      <c r="W35" s="101">
+        <f t="shared" si="13"/>
         <v>26579.504799999999</v>
       </c>
-      <c r="X35" s="112">
-        <f t="shared" si="19"/>
+      <c r="X35" s="100">
+        <f t="shared" si="14"/>
         <v>29778.1109</v>
       </c>
-      <c r="Y35" s="113">
-        <f t="shared" si="20"/>
+      <c r="Y35" s="101">
+        <f t="shared" si="15"/>
         <v>28594.861119999998</v>
       </c>
-      <c r="Z35" s="112">
-        <f t="shared" si="21"/>
+      <c r="Z35" s="100">
+        <f t="shared" si="16"/>
         <v>1322.081740031547</v>
       </c>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="133"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
@@ -6611,28 +6353,28 @@
       <c r="V36" s="7">
         <v>19339.408599999999</v>
       </c>
-      <c r="W36" s="88">
-        <f t="shared" si="18"/>
+      <c r="W36" s="82">
+        <f t="shared" si="13"/>
         <v>17732.170999999998</v>
       </c>
-      <c r="X36" s="80">
-        <f t="shared" si="19"/>
+      <c r="X36" s="75">
+        <f t="shared" si="14"/>
         <v>21118.172500000001</v>
       </c>
-      <c r="Y36" s="88">
-        <f t="shared" si="20"/>
+      <c r="Y36" s="82">
+        <f t="shared" si="15"/>
         <v>19598.352859999999</v>
       </c>
-      <c r="Z36" s="80">
-        <f t="shared" si="21"/>
+      <c r="Z36" s="75">
+        <f t="shared" si="16"/>
         <v>1244.0403477202437</v>
       </c>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="134"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="5" t="s">
         <v>21</v>
       </c>
@@ -6687,34 +6429,34 @@
       <c r="V37" s="7">
         <v>26744.1813</v>
       </c>
-      <c r="W37" s="89">
-        <f t="shared" si="18"/>
+      <c r="W37" s="83">
+        <f t="shared" si="13"/>
         <v>25268.338899999999</v>
       </c>
-      <c r="X37" s="81">
-        <f t="shared" si="19"/>
+      <c r="X37" s="76">
+        <f t="shared" si="14"/>
         <v>26747.061399999999</v>
       </c>
-      <c r="Y37" s="89">
-        <f t="shared" si="20"/>
+      <c r="Y37" s="83">
+        <f t="shared" si="15"/>
         <v>26175.666279999998</v>
       </c>
-      <c r="Z37" s="81">
-        <f t="shared" si="21"/>
+      <c r="Z37" s="76">
+        <f t="shared" si="16"/>
         <v>638.24577436668346</v>
       </c>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="132">
+      <c r="A38" s="156">
         <v>6</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="129">
+      <c r="C38" s="159">
         <v>4</v>
       </c>
-      <c r="D38" s="129">
+      <c r="D38" s="159">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -6771,28 +6513,28 @@
       <c r="V38" s="38">
         <v>2608.3694999999998</v>
       </c>
-      <c r="W38" s="87">
-        <f t="shared" ref="W38:W51" si="22">MIN(J38,M38,P38,S38,V38)</f>
+      <c r="W38" s="81">
+        <f t="shared" ref="W38:W51" si="17">MIN(J38,M38,P38,S38,V38)</f>
         <v>2604.5218</v>
       </c>
-      <c r="X38" s="79">
-        <f t="shared" ref="X38:X51" si="23">MAX(J38,M38,P38,S38,V38)</f>
+      <c r="X38" s="74">
+        <f t="shared" ref="X38:X51" si="18">MAX(J38,M38,P38,S38,V38)</f>
         <v>2629.8211000000001</v>
       </c>
-      <c r="Y38" s="87">
-        <f t="shared" ref="Y38:Y51" si="24">AVERAGE(J38,M38,P38,S38,V38)</f>
+      <c r="Y38" s="81">
+        <f t="shared" ref="Y38:Y51" si="19">AVERAGE(J38,M38,P38,S38,V38)</f>
         <v>2616.4858399999998</v>
       </c>
-      <c r="Z38" s="79">
-        <f t="shared" si="21"/>
+      <c r="Z38" s="74">
+        <f t="shared" si="16"/>
         <v>11.694077040237126</v>
       </c>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="133"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="5" t="s">
         <v>2</v>
       </c>
@@ -6847,28 +6589,28 @@
       <c r="V39" s="38">
         <v>988.88130000000001</v>
       </c>
-      <c r="W39" s="93">
-        <f t="shared" si="22"/>
+      <c r="W39" s="86">
+        <f t="shared" si="17"/>
         <v>988.88130000000001</v>
       </c>
-      <c r="X39" s="92">
-        <f t="shared" si="23"/>
+      <c r="X39" s="85">
+        <f t="shared" si="18"/>
         <v>1010.9696</v>
       </c>
-      <c r="Y39" s="93">
-        <f t="shared" si="24"/>
+      <c r="Y39" s="86">
+        <f t="shared" si="19"/>
         <v>996.0145399999999</v>
       </c>
-      <c r="Z39" s="92">
-        <f t="shared" si="21"/>
+      <c r="Z39" s="85">
+        <f t="shared" si="16"/>
         <v>8.9539574810806482</v>
       </c>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="133"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
       <c r="E40" s="4" t="s">
         <v>17</v>
       </c>
@@ -6923,28 +6665,28 @@
       <c r="V40" s="53">
         <v>27.134</v>
       </c>
-      <c r="W40" s="96">
-        <f t="shared" si="22"/>
+      <c r="W40" s="88">
+        <f t="shared" si="17"/>
         <v>21.316500000000001</v>
       </c>
-      <c r="X40" s="95">
-        <f t="shared" si="23"/>
+      <c r="X40" s="87">
+        <f t="shared" si="18"/>
         <v>30.0246</v>
       </c>
-      <c r="Y40" s="96">
-        <f t="shared" si="24"/>
+      <c r="Y40" s="88">
+        <f t="shared" si="19"/>
         <v>27.109400000000001</v>
       </c>
-      <c r="Z40" s="95">
-        <f t="shared" si="21"/>
+      <c r="Z40" s="87">
+        <f t="shared" si="16"/>
         <v>3.4078918490761971</v>
       </c>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="133"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
       <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
@@ -6999,28 +6741,28 @@
       <c r="V41" s="53">
         <v>1.456</v>
       </c>
-      <c r="W41" s="101">
-        <f t="shared" si="22"/>
+      <c r="W41" s="92">
+        <f t="shared" si="17"/>
         <v>1.2212000000000001</v>
       </c>
-      <c r="X41" s="100">
-        <f t="shared" si="23"/>
+      <c r="X41" s="91">
+        <f t="shared" si="18"/>
         <v>2.2974999999999999</v>
       </c>
-      <c r="Y41" s="101">
-        <f t="shared" si="24"/>
+      <c r="Y41" s="92">
+        <f t="shared" si="19"/>
         <v>1.6448199999999997</v>
       </c>
-      <c r="Z41" s="100">
-        <f t="shared" si="21"/>
+      <c r="Z41" s="91">
+        <f t="shared" si="16"/>
         <v>0.47376320245456094</v>
       </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="133"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
@@ -7075,28 +6817,28 @@
       <c r="V42" s="7">
         <v>25026.981100000001</v>
       </c>
-      <c r="W42" s="99">
-        <f t="shared" si="22"/>
+      <c r="W42" s="90">
+        <f t="shared" si="17"/>
         <v>25026.981100000001</v>
       </c>
-      <c r="X42" s="98">
-        <f t="shared" si="23"/>
+      <c r="X42" s="89">
+        <f t="shared" si="18"/>
         <v>26145.107899999999</v>
       </c>
-      <c r="Y42" s="99">
-        <f t="shared" si="24"/>
+      <c r="Y42" s="90">
+        <f t="shared" si="19"/>
         <v>25513.442480000005</v>
       </c>
-      <c r="Z42" s="98">
-        <f t="shared" si="21"/>
+      <c r="Z42" s="89">
+        <f t="shared" si="16"/>
         <v>454.27922135522135</v>
       </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="133"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
       <c r="E43" s="4" t="s">
         <v>21</v>
       </c>
@@ -7151,28 +6893,28 @@
       <c r="V43" s="7">
         <v>17934.472000000002</v>
       </c>
-      <c r="W43" s="88">
-        <f t="shared" si="22"/>
+      <c r="W43" s="82">
+        <f t="shared" si="17"/>
         <v>17569.019899999999</v>
       </c>
-      <c r="X43" s="80">
-        <f t="shared" si="23"/>
+      <c r="X43" s="75">
+        <f t="shared" si="18"/>
         <v>18204.067299999999</v>
       </c>
-      <c r="Y43" s="88">
-        <f t="shared" si="24"/>
+      <c r="Y43" s="82">
+        <f t="shared" si="19"/>
         <v>17848.245940000001</v>
       </c>
-      <c r="Z43" s="80">
-        <f t="shared" si="21"/>
+      <c r="Z43" s="75">
+        <f t="shared" si="16"/>
         <v>237.57563763684385</v>
       </c>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="134"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="161"/>
       <c r="E44" s="5" t="s">
         <v>21</v>
       </c>
@@ -7227,34 +6969,34 @@
       <c r="V44" s="7">
         <v>24481.9385</v>
       </c>
-      <c r="W44" s="90">
-        <f t="shared" si="22"/>
+      <c r="W44" s="84">
+        <f t="shared" si="17"/>
         <v>22915.588199999998</v>
       </c>
-      <c r="X44" s="82">
-        <f t="shared" si="23"/>
+      <c r="X44" s="77">
+        <f t="shared" si="18"/>
         <v>26312.523099999999</v>
       </c>
-      <c r="Y44" s="90">
-        <f t="shared" si="24"/>
+      <c r="Y44" s="84">
+        <f t="shared" si="19"/>
         <v>24602.740420000002</v>
       </c>
-      <c r="Z44" s="82">
-        <f t="shared" si="21"/>
+      <c r="Z44" s="77">
+        <f t="shared" si="16"/>
         <v>1271.9392359600229</v>
       </c>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="132">
+      <c r="A45" s="156">
         <v>7</v>
       </c>
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="129">
+      <c r="C45" s="159">
         <v>4</v>
       </c>
-      <c r="D45" s="129">
+      <c r="D45" s="159">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -7311,28 +7053,28 @@
       <c r="V45" s="38">
         <v>2625.8474000000001</v>
       </c>
-      <c r="W45" s="71">
-        <f t="shared" si="22"/>
+      <c r="W45" s="66">
+        <f t="shared" si="17"/>
         <v>2604.5218</v>
       </c>
-      <c r="X45" s="70">
-        <f t="shared" si="23"/>
+      <c r="X45" s="65">
+        <f t="shared" si="18"/>
         <v>2628.6210999999998</v>
       </c>
-      <c r="Y45" s="71">
-        <f t="shared" si="24"/>
+      <c r="Y45" s="66">
+        <f t="shared" si="19"/>
         <v>2621.5508</v>
       </c>
-      <c r="Z45" s="70">
-        <f t="shared" si="21"/>
+      <c r="Z45" s="65">
+        <f t="shared" si="16"/>
         <v>9.7325213678162434</v>
       </c>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="133"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
       <c r="E46" s="5" t="s">
         <v>2</v>
       </c>
@@ -7387,28 +7129,28 @@
       <c r="V46" s="38">
         <v>1006.4798</v>
       </c>
-      <c r="W46" s="110">
-        <f t="shared" si="22"/>
+      <c r="W46" s="98">
+        <f t="shared" si="17"/>
         <v>1001.0399</v>
       </c>
-      <c r="X46" s="109">
-        <f t="shared" si="23"/>
+      <c r="X46" s="97">
+        <f t="shared" si="18"/>
         <v>1016.4288</v>
       </c>
-      <c r="Y46" s="110">
-        <f t="shared" si="24"/>
+      <c r="Y46" s="98">
+        <f t="shared" si="19"/>
         <v>1011.1212400000001</v>
       </c>
-      <c r="Z46" s="109">
-        <f t="shared" si="21"/>
+      <c r="Z46" s="97">
+        <f t="shared" si="16"/>
         <v>6.9973155290439895</v>
       </c>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="133"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
       <c r="E47" s="4" t="s">
         <v>17</v>
       </c>
@@ -7463,28 +7205,28 @@
       <c r="V47" s="53">
         <v>27.788499999999999</v>
       </c>
-      <c r="W47" s="104">
-        <f t="shared" si="22"/>
+      <c r="W47" s="94">
+        <f t="shared" si="17"/>
         <v>27.511800000000001</v>
       </c>
-      <c r="X47" s="103">
-        <f t="shared" si="23"/>
+      <c r="X47" s="93">
+        <f t="shared" si="18"/>
         <v>28.0701</v>
       </c>
-      <c r="Y47" s="104">
-        <f t="shared" si="24"/>
+      <c r="Y47" s="94">
+        <f t="shared" si="19"/>
         <v>27.807439999999996</v>
       </c>
-      <c r="Z47" s="103">
-        <f t="shared" si="21"/>
+      <c r="Z47" s="93">
+        <f t="shared" si="16"/>
         <v>0.19935738762333299</v>
       </c>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="133"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="4" t="s">
         <v>17</v>
       </c>
@@ -7539,28 +7281,28 @@
       <c r="V48" s="53">
         <v>0.14710000000000001</v>
       </c>
-      <c r="W48" s="107">
-        <f t="shared" si="22"/>
+      <c r="W48" s="96">
+        <f t="shared" si="17"/>
         <v>0.14169999999999999</v>
       </c>
-      <c r="X48" s="106">
-        <f t="shared" si="23"/>
+      <c r="X48" s="95">
+        <f t="shared" si="18"/>
         <v>0.15279999999999999</v>
       </c>
-      <c r="Y48" s="107">
-        <f t="shared" si="24"/>
+      <c r="Y48" s="96">
+        <f t="shared" si="19"/>
         <v>0.14929999999999999</v>
       </c>
-      <c r="Z48" s="106">
-        <f t="shared" si="21"/>
+      <c r="Z48" s="95">
+        <f t="shared" si="16"/>
         <v>4.8667237439575317E-3</v>
       </c>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="133"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
+      <c r="A49" s="157"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
@@ -7615,28 +7357,28 @@
       <c r="V49" s="7">
         <v>24760.515200000002</v>
       </c>
-      <c r="W49" s="113">
-        <f t="shared" si="22"/>
+      <c r="W49" s="101">
+        <f t="shared" si="17"/>
         <v>23475.0334</v>
       </c>
-      <c r="X49" s="112">
-        <f t="shared" si="23"/>
+      <c r="X49" s="100">
+        <f t="shared" si="18"/>
         <v>25821.344300000001</v>
       </c>
-      <c r="Y49" s="113">
-        <f t="shared" si="24"/>
+      <c r="Y49" s="101">
+        <f t="shared" si="19"/>
         <v>24802.738359999999</v>
       </c>
-      <c r="Z49" s="112">
-        <f t="shared" si="21"/>
+      <c r="Z49" s="100">
+        <f t="shared" si="16"/>
         <v>969.38465475016324</v>
       </c>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="133"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="4" t="s">
         <v>21</v>
       </c>
@@ -7691,28 +7433,28 @@
       <c r="V50" s="7">
         <v>17434.099399999999</v>
       </c>
-      <c r="W50" s="89">
-        <f t="shared" si="22"/>
+      <c r="W50" s="83">
+        <f t="shared" si="17"/>
         <v>16998.980500000001</v>
       </c>
-      <c r="X50" s="81">
-        <f t="shared" si="23"/>
+      <c r="X50" s="76">
+        <f t="shared" si="18"/>
         <v>17930.900099999999</v>
       </c>
-      <c r="Y50" s="89">
-        <f t="shared" si="24"/>
+      <c r="Y50" s="83">
+        <f t="shared" si="19"/>
         <v>17484.966639999999</v>
       </c>
-      <c r="Z50" s="81">
-        <f t="shared" si="21"/>
+      <c r="Z50" s="76">
+        <f t="shared" si="16"/>
         <v>398.39688327069365</v>
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="134"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
+      <c r="A51" s="158"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="5" t="s">
         <v>21</v>
       </c>
@@ -7767,34 +7509,34 @@
       <c r="V51" s="7">
         <v>18053.343099999998</v>
       </c>
-      <c r="W51" s="89">
-        <f t="shared" si="22"/>
+      <c r="W51" s="83">
+        <f t="shared" si="17"/>
         <v>17699.5952</v>
       </c>
-      <c r="X51" s="81">
-        <f t="shared" si="23"/>
+      <c r="X51" s="76">
+        <f t="shared" si="18"/>
         <v>18842.041000000001</v>
       </c>
-      <c r="Y51" s="89">
-        <f t="shared" si="24"/>
+      <c r="Y51" s="83">
+        <f t="shared" si="19"/>
         <v>18312.247859999999</v>
       </c>
-      <c r="Z51" s="81">
-        <f t="shared" si="21"/>
+      <c r="Z51" s="76">
+        <f t="shared" si="16"/>
         <v>442.32216633729024</v>
       </c>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="132">
+      <c r="A52" s="156">
         <v>8</v>
       </c>
-      <c r="B52" s="129" t="s">
+      <c r="B52" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="129">
+      <c r="C52" s="159">
         <v>2</v>
       </c>
-      <c r="D52" s="129">
+      <c r="D52" s="159">
         <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -7851,28 +7593,28 @@
       <c r="V52" s="38">
         <v>2571.6741999999999</v>
       </c>
-      <c r="W52" s="87">
-        <f t="shared" ref="W52:W58" si="25">MIN(J52,M52,P52,S52,V52)</f>
+      <c r="W52" s="81">
+        <f t="shared" ref="W52:W58" si="20">MIN(J52,M52,P52,S52,V52)</f>
         <v>2556.6466</v>
       </c>
-      <c r="X52" s="79">
-        <f t="shared" ref="X52:X58" si="26">MAX(J52,M52,P52,S52,V52)</f>
+      <c r="X52" s="74">
+        <f t="shared" ref="X52:X58" si="21">MAX(J52,M52,P52,S52,V52)</f>
         <v>2602.4218999999998</v>
       </c>
-      <c r="Y52" s="87">
-        <f t="shared" ref="Y52:Y58" si="27">AVERAGE(J52,M52,P52,S52,V52)</f>
+      <c r="Y52" s="81">
+        <f t="shared" ref="Y52:Y58" si="22">AVERAGE(J52,M52,P52,S52,V52)</f>
         <v>2584.2817999999997</v>
       </c>
-      <c r="Z52" s="79">
-        <f t="shared" ref="Z52:Z58" si="28">_xlfn.STDEV.S(J52,M52,P52,S52,V52)</f>
+      <c r="Z52" s="74">
+        <f t="shared" ref="Z52:Z58" si="23">_xlfn.STDEV.S(J52,M52,P52,S52,V52)</f>
         <v>19.69376064633154</v>
       </c>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="133"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="5" t="s">
         <v>2</v>
       </c>
@@ -7927,28 +7669,28 @@
       <c r="V53" s="38">
         <v>1007.5697</v>
       </c>
-      <c r="W53" s="93">
-        <f t="shared" si="25"/>
+      <c r="W53" s="86">
+        <f t="shared" si="20"/>
         <v>1004.6095</v>
       </c>
-      <c r="X53" s="92">
-        <f t="shared" si="26"/>
+      <c r="X53" s="85">
+        <f t="shared" si="21"/>
         <v>1010.8493999999999</v>
       </c>
-      <c r="Y53" s="93">
-        <f t="shared" si="27"/>
+      <c r="Y53" s="86">
+        <f t="shared" si="22"/>
         <v>1006.8674999999999</v>
       </c>
-      <c r="Z53" s="92">
-        <f t="shared" si="28"/>
+      <c r="Z53" s="85">
+        <f t="shared" si="23"/>
         <v>2.4764218168558974</v>
       </c>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="133"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
       <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
@@ -8003,28 +7745,28 @@
       <c r="V54" s="53">
         <v>29.175699999999999</v>
       </c>
-      <c r="W54" s="96">
-        <f t="shared" si="25"/>
+      <c r="W54" s="88">
+        <f t="shared" si="20"/>
         <v>29.175699999999999</v>
       </c>
-      <c r="X54" s="95">
-        <f t="shared" si="26"/>
+      <c r="X54" s="87">
+        <f t="shared" si="21"/>
         <v>31.506900000000002</v>
       </c>
-      <c r="Y54" s="96">
-        <f t="shared" si="27"/>
+      <c r="Y54" s="88">
+        <f t="shared" si="22"/>
         <v>30.285959999999999</v>
       </c>
-      <c r="Z54" s="95">
-        <f t="shared" si="28"/>
+      <c r="Z54" s="87">
+        <f t="shared" si="23"/>
         <v>1.1303674283170055</v>
       </c>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="133"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="4" t="s">
         <v>17</v>
       </c>
@@ -8079,28 +7821,28 @@
       <c r="V55" s="53">
         <v>0.1593</v>
       </c>
-      <c r="W55" s="101">
-        <f t="shared" si="25"/>
+      <c r="W55" s="92">
+        <f t="shared" si="20"/>
         <v>0.15440000000000001</v>
       </c>
-      <c r="X55" s="100">
-        <f t="shared" si="26"/>
+      <c r="X55" s="91">
+        <f t="shared" si="21"/>
         <v>0.16789999999999999</v>
       </c>
-      <c r="Y55" s="101">
-        <f t="shared" si="27"/>
+      <c r="Y55" s="92">
+        <f t="shared" si="22"/>
         <v>0.16128000000000001</v>
       </c>
-      <c r="Z55" s="100">
-        <f t="shared" si="28"/>
+      <c r="Z55" s="91">
+        <f t="shared" si="23"/>
         <v>5.9533184023702213E-3</v>
       </c>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="133"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
+      <c r="A56" s="157"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
@@ -8155,28 +7897,28 @@
       <c r="V56" s="7">
         <v>28991.516800000001</v>
       </c>
-      <c r="W56" s="99">
-        <f t="shared" si="25"/>
+      <c r="W56" s="90">
+        <f t="shared" si="20"/>
         <v>27870.563600000001</v>
       </c>
-      <c r="X56" s="98">
-        <f t="shared" si="26"/>
+      <c r="X56" s="89">
+        <f t="shared" si="21"/>
         <v>30215.9833</v>
       </c>
-      <c r="Y56" s="99">
-        <f t="shared" si="27"/>
+      <c r="Y56" s="90">
+        <f t="shared" si="22"/>
         <v>29031.387360000001</v>
       </c>
-      <c r="Z56" s="98">
-        <f t="shared" si="28"/>
+      <c r="Z56" s="89">
+        <f t="shared" si="23"/>
         <v>1037.6544419135744</v>
       </c>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="133"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
+      <c r="A57" s="157"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
       <c r="E57" s="4" t="s">
         <v>21</v>
       </c>
@@ -8231,28 +7973,28 @@
       <c r="V57" s="7">
         <v>19811.539400000001</v>
       </c>
-      <c r="W57" s="88">
-        <f t="shared" si="25"/>
+      <c r="W57" s="82">
+        <f t="shared" si="20"/>
         <v>18554.316699999999</v>
       </c>
-      <c r="X57" s="80">
-        <f t="shared" si="26"/>
+      <c r="X57" s="75">
+        <f t="shared" si="21"/>
         <v>19811.539400000001</v>
       </c>
-      <c r="Y57" s="88">
-        <f t="shared" si="27"/>
+      <c r="Y57" s="82">
+        <f t="shared" si="22"/>
         <v>19194.377539999998</v>
       </c>
-      <c r="Z57" s="80">
-        <f t="shared" si="28"/>
+      <c r="Z57" s="75">
+        <f t="shared" si="23"/>
         <v>539.9737664551526</v>
       </c>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="134"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
+      <c r="A58" s="158"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="5" t="s">
         <v>21</v>
       </c>
@@ -8307,64 +8049,31 @@
       <c r="V58" s="9">
         <v>19400.183799999999</v>
       </c>
-      <c r="W58" s="90">
-        <f t="shared" si="25"/>
+      <c r="W58" s="84">
+        <f t="shared" si="20"/>
         <v>18928.624899999999</v>
       </c>
-      <c r="X58" s="82">
-        <f t="shared" si="26"/>
+      <c r="X58" s="77">
+        <f t="shared" si="21"/>
         <v>20656.1391</v>
       </c>
-      <c r="Y58" s="90">
-        <f t="shared" si="27"/>
+      <c r="Y58" s="84">
+        <f t="shared" si="22"/>
         <v>19795.761879999998</v>
       </c>
-      <c r="Z58" s="82">
-        <f t="shared" si="28"/>
+      <c r="Z58" s="77">
+        <f t="shared" si="23"/>
         <v>678.95194600111279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AB1:AB30"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -8379,12 +8088,45 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AB1:AB30"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8394,8 +8136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD26A37-E699-447C-B883-E7BAF092437C}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8405,73 +8147,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="141">
+      <c r="H1" s="168">
         <v>1</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="141">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="168">
         <v>2</v>
       </c>
-      <c r="L1" s="135"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="135">
+      <c r="L1" s="166"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="166">
         <v>3</v>
       </c>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="168">
         <v>4</v>
       </c>
-      <c r="R1" s="135"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="135">
+      <c r="R1" s="166"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="166">
         <v>5</v>
       </c>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="141" t="s">
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="139" t="s">
+      <c r="X1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="135" t="s">
+      <c r="Y1" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="139" t="s">
+      <c r="Z1" s="143" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="142"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="136"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="21" t="s">
         <v>12</v>
       </c>
@@ -8481,7 +8223,7 @@
       <c r="J2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="171" t="s">
+      <c r="K2" s="116" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="24" t="s">
@@ -8517,22 +8259,22 @@
       <c r="V2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="142"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="140"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="165"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="132">
+      <c r="A3" s="156">
         <v>1</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="159">
         <v>2</v>
       </c>
-      <c r="D3" s="129">
+      <c r="D3" s="159">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8544,73 +8286,73 @@
       <c r="G3" s="16">
         <v>30000</v>
       </c>
-      <c r="H3" s="173">
+      <c r="H3" s="117">
         <v>10.0006</v>
       </c>
-      <c r="I3" s="174">
+      <c r="I3" s="118">
         <v>25870</v>
       </c>
-      <c r="J3" s="175">
+      <c r="J3" s="119">
         <v>2586.8447000000001</v>
       </c>
-      <c r="K3" s="173">
+      <c r="K3" s="117">
         <v>10.000500000000001</v>
       </c>
-      <c r="L3" s="174">
+      <c r="L3" s="118">
         <v>25622</v>
       </c>
-      <c r="M3" s="176">
+      <c r="M3" s="120">
         <v>2562.0718000000002</v>
       </c>
-      <c r="N3" s="177">
+      <c r="N3" s="121">
         <v>10.0006</v>
       </c>
-      <c r="O3" s="174">
+      <c r="O3" s="118">
         <v>25688</v>
       </c>
-      <c r="P3" s="175">
+      <c r="P3" s="119">
         <v>2568.6457999999998</v>
       </c>
-      <c r="Q3" s="173">
+      <c r="Q3" s="117">
         <v>10.000299999999999</v>
       </c>
-      <c r="R3" s="174">
+      <c r="R3" s="118">
         <v>25900</v>
       </c>
-      <c r="S3" s="176">
+      <c r="S3" s="120">
         <v>2589.9223000000002</v>
       </c>
-      <c r="T3" s="177">
+      <c r="T3" s="121">
         <v>10.0002</v>
       </c>
-      <c r="U3" s="174">
+      <c r="U3" s="118">
         <v>26004</v>
       </c>
-      <c r="V3" s="176">
+      <c r="V3" s="120">
         <v>2600.3479000000002</v>
       </c>
-      <c r="W3" s="87">
+      <c r="W3" s="81">
         <f>MIN(J3,M3,P3,S3,V3)</f>
         <v>2562.0718000000002</v>
       </c>
-      <c r="X3" s="79">
+      <c r="X3" s="74">
         <f>MAX(J3,M3,P3,S3,V3)</f>
         <v>2600.3479000000002</v>
       </c>
-      <c r="Y3" s="87">
+      <c r="Y3" s="81">
         <f>AVERAGE(J3,M3,P3,S3,V3)</f>
         <v>2581.5664999999999</v>
       </c>
-      <c r="Z3" s="79">
+      <c r="Z3" s="74">
         <f>_xlfn.STDEV.S(J3,M3,P3,S3,V3)</f>
         <v>15.79088021153358</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="133"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8620,73 +8362,73 @@
       <c r="G4" s="20">
         <v>60000</v>
       </c>
-      <c r="H4" s="191">
+      <c r="H4" s="135">
         <v>10.000500000000001</v>
       </c>
-      <c r="I4" s="192">
+      <c r="I4" s="136">
         <v>10000</v>
       </c>
-      <c r="J4" s="193">
+      <c r="J4" s="137">
         <v>999.95</v>
       </c>
-      <c r="K4" s="191">
+      <c r="K4" s="135">
         <v>10.0009</v>
       </c>
-      <c r="L4" s="192">
+      <c r="L4" s="136">
         <v>9961</v>
       </c>
-      <c r="M4" s="194">
+      <c r="M4" s="138">
         <v>996.01030000000003</v>
       </c>
-      <c r="N4" s="195">
+      <c r="N4" s="139">
         <v>10.001099999999999</v>
       </c>
-      <c r="O4" s="192">
+      <c r="O4" s="136">
         <v>9890</v>
       </c>
-      <c r="P4" s="193">
+      <c r="P4" s="137">
         <v>988.89120000000003</v>
       </c>
-      <c r="Q4" s="191">
+      <c r="Q4" s="135">
         <v>10.001300000000001</v>
       </c>
-      <c r="R4" s="192">
+      <c r="R4" s="136">
         <v>9604</v>
       </c>
-      <c r="S4" s="194">
+      <c r="S4" s="138">
         <v>960.27509999999995</v>
       </c>
-      <c r="T4" s="195">
+      <c r="T4" s="139">
         <v>10.000299999999999</v>
       </c>
-      <c r="U4" s="192">
+      <c r="U4" s="136">
         <v>9841</v>
       </c>
-      <c r="V4" s="194">
+      <c r="V4" s="138">
         <v>984.07039999999995</v>
       </c>
-      <c r="W4" s="110">
+      <c r="W4" s="98">
         <f t="shared" ref="W4:W9" si="0">MIN(J4,M4,P4,S4,V4)</f>
         <v>960.27509999999995</v>
       </c>
-      <c r="X4" s="109">
+      <c r="X4" s="97">
         <f>MAX(J4,M4,P4,S4,V4)</f>
         <v>999.95</v>
       </c>
-      <c r="Y4" s="110">
+      <c r="Y4" s="98">
         <f t="shared" ref="Y4:Y9" si="1">AVERAGE(J4,M4,P4,S4,V4)</f>
         <v>985.83940000000007</v>
       </c>
-      <c r="Z4" s="109">
+      <c r="Z4" s="97">
         <f t="shared" ref="Z4:Z9" si="2">_xlfn.STDEV.S(J4,M4,P4,S4,V4)</f>
         <v>15.560627541169449</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="133"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
@@ -8696,73 +8438,73 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="181">
+      <c r="H5" s="125">
         <v>3.1865999999999999</v>
       </c>
-      <c r="I5" s="182">
+      <c r="I5" s="126">
         <v>100</v>
       </c>
-      <c r="J5" s="183">
+      <c r="J5" s="127">
         <v>31.381399999999999</v>
       </c>
-      <c r="K5" s="181">
+      <c r="K5" s="125">
         <v>3.2808000000000002</v>
       </c>
-      <c r="L5" s="182">
+      <c r="L5" s="126">
         <v>100</v>
       </c>
-      <c r="M5" s="184">
+      <c r="M5" s="128">
         <v>30.4803</v>
       </c>
-      <c r="N5" s="185">
+      <c r="N5" s="129">
         <v>3.1602000000000001</v>
       </c>
-      <c r="O5" s="182">
+      <c r="O5" s="126">
         <v>100</v>
       </c>
-      <c r="P5" s="183">
+      <c r="P5" s="127">
         <v>31.6435</v>
       </c>
-      <c r="Q5" s="181">
+      <c r="Q5" s="125">
         <v>3.1855000000000002</v>
       </c>
-      <c r="R5" s="182">
+      <c r="R5" s="126">
         <v>100</v>
       </c>
-      <c r="S5" s="184">
+      <c r="S5" s="128">
         <v>31.392199999999999</v>
       </c>
-      <c r="T5" s="185">
+      <c r="T5" s="129">
         <v>3.1823000000000001</v>
       </c>
-      <c r="U5" s="182">
+      <c r="U5" s="126">
         <v>100</v>
       </c>
-      <c r="V5" s="184">
+      <c r="V5" s="128">
         <v>31.4238</v>
       </c>
-      <c r="W5" s="104">
+      <c r="W5" s="94">
         <f t="shared" si="0"/>
         <v>30.4803</v>
       </c>
-      <c r="X5" s="103">
+      <c r="X5" s="93">
         <f t="shared" ref="X4:X9" si="3">MAX(J5,M5,P5,S5,V5)</f>
         <v>31.6435</v>
       </c>
-      <c r="Y5" s="104">
+      <c r="Y5" s="94">
         <f t="shared" si="1"/>
         <v>31.264240000000001</v>
       </c>
-      <c r="Z5" s="103">
+      <c r="Z5" s="93">
         <f t="shared" si="2"/>
         <v>0.45109857348477606</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="133"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -8772,73 +8514,73 @@
       <c r="G6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="186">
+      <c r="H6" s="130">
         <v>20.557400000000001</v>
       </c>
-      <c r="I6" s="187">
+      <c r="I6" s="131">
         <v>1</v>
       </c>
-      <c r="J6" s="188">
+      <c r="J6" s="132">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="K6" s="186">
+      <c r="K6" s="130">
         <v>19.736499999999999</v>
       </c>
-      <c r="L6" s="187">
+      <c r="L6" s="131">
         <v>1</v>
       </c>
-      <c r="M6" s="189">
+      <c r="M6" s="133">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="N6" s="190">
+      <c r="N6" s="134">
         <v>19.343</v>
       </c>
-      <c r="O6" s="187">
+      <c r="O6" s="131">
         <v>1</v>
       </c>
-      <c r="P6" s="188">
+      <c r="P6" s="132">
         <v>5.16E-2</v>
       </c>
-      <c r="Q6" s="186">
+      <c r="Q6" s="130">
         <v>19.5657</v>
       </c>
-      <c r="R6" s="187">
+      <c r="R6" s="131">
         <v>1</v>
       </c>
-      <c r="S6" s="189">
+      <c r="S6" s="133">
         <v>5.11E-2</v>
       </c>
-      <c r="T6" s="190">
+      <c r="T6" s="134">
         <v>19.4377</v>
       </c>
-      <c r="U6" s="187">
+      <c r="U6" s="131">
         <v>1</v>
       </c>
-      <c r="V6" s="189">
+      <c r="V6" s="133">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="W6" s="107">
+      <c r="W6" s="96">
         <f t="shared" si="0"/>
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="X6" s="106">
+      <c r="X6" s="95">
         <f t="shared" si="3"/>
         <v>5.16E-2</v>
       </c>
-      <c r="Y6" s="107">
+      <c r="Y6" s="96">
         <f t="shared" si="1"/>
         <v>5.0659999999999997E-2</v>
       </c>
-      <c r="Z6" s="106">
+      <c r="Z6" s="95">
         <f t="shared" si="2"/>
         <v>1.2116104984688781E-3</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="133"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
@@ -8848,73 +8590,73 @@
       <c r="G7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="178">
+      <c r="H7" s="122">
         <v>10.0108</v>
       </c>
-      <c r="I7" s="179">
+      <c r="I7" s="123">
         <v>157260</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="102">
         <v>15709.0342</v>
       </c>
-      <c r="K7" s="178">
+      <c r="K7" s="122">
         <v>10.0054</v>
       </c>
-      <c r="L7" s="179">
+      <c r="L7" s="123">
         <v>146802</v>
       </c>
-      <c r="M7" s="118">
+      <c r="M7" s="103">
         <v>14672.276900000001</v>
       </c>
-      <c r="N7" s="180">
+      <c r="N7" s="124">
         <v>10.014799999999999</v>
       </c>
-      <c r="O7" s="179">
+      <c r="O7" s="123">
         <v>154288</v>
       </c>
-      <c r="P7" s="117">
+      <c r="P7" s="102">
         <v>15405.999100000001</v>
       </c>
-      <c r="Q7" s="178">
+      <c r="Q7" s="122">
         <v>10.008900000000001</v>
       </c>
-      <c r="R7" s="179">
+      <c r="R7" s="123">
         <v>149048</v>
       </c>
-      <c r="S7" s="118">
+      <c r="S7" s="103">
         <v>14891.5465</v>
       </c>
-      <c r="T7" s="180">
+      <c r="T7" s="124">
         <v>10.015700000000001</v>
       </c>
-      <c r="U7" s="179">
+      <c r="U7" s="123">
         <v>147903</v>
       </c>
-      <c r="V7" s="117">
+      <c r="V7" s="102">
         <v>14767.115599999999</v>
       </c>
-      <c r="W7" s="111">
+      <c r="W7" s="99">
         <f t="shared" si="0"/>
         <v>14672.276900000001</v>
       </c>
-      <c r="X7" s="112">
+      <c r="X7" s="100">
         <f t="shared" si="3"/>
         <v>15709.0342</v>
       </c>
-      <c r="Y7" s="113">
+      <c r="Y7" s="101">
         <f t="shared" si="1"/>
         <v>15089.194460000002</v>
       </c>
-      <c r="Z7" s="112">
+      <c r="Z7" s="100">
         <f t="shared" si="2"/>
         <v>447.54503773257625</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="133"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8969,28 +8711,28 @@
       <c r="V8" s="35">
         <v>12794.7816</v>
       </c>
-      <c r="W8" s="84">
+      <c r="W8" s="78">
         <f t="shared" si="0"/>
         <v>12097.386500000001</v>
       </c>
-      <c r="X8" s="80">
+      <c r="X8" s="75">
         <f t="shared" si="3"/>
         <v>12794.7816</v>
       </c>
-      <c r="Y8" s="88">
+      <c r="Y8" s="82">
         <f t="shared" si="1"/>
         <v>12460.015520000001</v>
       </c>
-      <c r="Z8" s="80">
+      <c r="Z8" s="75">
         <f t="shared" si="2"/>
         <v>316.4350061427574</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="134"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
@@ -9045,30 +8787,25 @@
       <c r="V9" s="61">
         <v>14955.693799999999</v>
       </c>
-      <c r="W9" s="86">
+      <c r="W9" s="80">
         <f t="shared" si="0"/>
         <v>14159.456399999999</v>
       </c>
-      <c r="X9" s="82">
+      <c r="X9" s="77">
         <f t="shared" si="3"/>
         <v>15040.8575</v>
       </c>
-      <c r="Y9" s="90">
+      <c r="Y9" s="84">
         <f t="shared" si="1"/>
         <v>14757.233319999999</v>
       </c>
-      <c r="Z9" s="82">
+      <c r="Z9" s="77">
         <f t="shared" si="2"/>
         <v>357.41912062450893</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -9084,6 +8821,11 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9093,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957A17C-2481-4AED-BF97-C2360851718D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9108,65 +8850,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="139" t="s">
+      <c r="G1" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="162" t="s">
+      <c r="H1" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="164" t="s">
+      <c r="I1" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="196" t="s">
+      <c r="K1" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="166" t="s">
+      <c r="L1" s="182" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="142"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="183"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="132">
+      <c r="A3" s="156">
         <v>1</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="159">
         <v>2</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="159">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -9178,30 +8920,30 @@
       <c r="F3" s="16">
         <v>30000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="65">
         <v>2593.8711400000002</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="66">
         <v>2584.2817999999997</v>
       </c>
-      <c r="I3" s="114">
-        <v>2294.7619321997458</v>
-      </c>
-      <c r="J3" s="79">
+      <c r="I3" s="74">
+        <v>2614.7510799999995</v>
+      </c>
+      <c r="J3" s="74">
         <v>2581.5664999999999</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="67">
         <f>MAX(G3,H3,I3,J3)</f>
-        <v>2593.8711400000002</v>
-      </c>
-      <c r="L3" s="72" t="s">
-        <v>15</v>
+        <v>2614.7510799999995</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="133"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -9211,30 +8953,30 @@
       <c r="F4" s="20">
         <v>60000</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G4" s="97">
         <v>1012.35918</v>
       </c>
-      <c r="H4" s="110">
+      <c r="H4" s="98">
         <v>1006.8674999999999</v>
       </c>
-      <c r="I4" s="108">
-        <v>992.18662928538072</v>
-      </c>
-      <c r="J4" s="109">
+      <c r="I4" s="97">
+        <v>992.18658000000016</v>
+      </c>
+      <c r="J4" s="97">
         <v>985.83940000000007</v>
       </c>
-      <c r="K4" s="204">
+      <c r="K4" s="142">
         <f t="shared" ref="K4:K9" si="0">MAX(G4,H4,I4,J4)</f>
         <v>1012.35918</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L4" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="133"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
@@ -9244,30 +8986,30 @@
       <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="93">
         <v>28.655060000000002</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="94">
         <v>30.285959999999999</v>
       </c>
-      <c r="I5" s="102">
-        <v>27.648385342728574</v>
-      </c>
-      <c r="J5" s="102">
+      <c r="I5" s="93">
+        <v>27.648340000000001</v>
+      </c>
+      <c r="J5" s="94">
         <v>31.264240000000001</v>
       </c>
-      <c r="K5" s="103">
+      <c r="K5" s="93">
         <f t="shared" si="0"/>
         <v>31.264240000000001</v>
       </c>
-      <c r="L5" s="199" t="s">
-        <v>33</v>
+      <c r="L5" s="140" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="133"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
@@ -9277,30 +9019,30 @@
       <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="95">
         <v>0.14613999999999999</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="96">
         <v>0.16128000000000001</v>
       </c>
-      <c r="I6" s="105">
-        <v>0.14685743435042287</v>
-      </c>
-      <c r="J6" s="105">
+      <c r="I6" s="95">
+        <v>0.34828000000000003</v>
+      </c>
+      <c r="J6" s="96">
         <v>5.0659999999999997E-2</v>
       </c>
-      <c r="K6" s="203">
+      <c r="K6" s="141">
         <f t="shared" si="0"/>
-        <v>0.16128000000000001</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>26</v>
+        <v>0.34828000000000003</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="133"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
@@ -9310,30 +9052,30 @@
       <c r="F7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="100">
         <v>29442.713400000001</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="101">
         <v>29031.387360000001</v>
       </c>
-      <c r="I7" s="111">
-        <v>25645.574064790977</v>
-      </c>
-      <c r="J7" s="111">
+      <c r="I7" s="100">
+        <v>36841.163760000003</v>
+      </c>
+      <c r="J7" s="99">
         <v>15089.194460000002</v>
       </c>
-      <c r="K7" s="198">
+      <c r="K7" s="100">
         <f t="shared" si="0"/>
-        <v>29442.713400000001</v>
-      </c>
-      <c r="L7" s="126" t="s">
-        <v>15</v>
+        <v>36841.163760000003</v>
+      </c>
+      <c r="L7" s="108" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="133"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9343,30 +9085,30 @@
       <c r="F8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="75">
         <v>18420.136220000004</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="82">
         <v>19194.377539999998</v>
       </c>
-      <c r="I8" s="84">
-        <v>17677.437311581823</v>
-      </c>
-      <c r="J8" s="84">
+      <c r="I8" s="75">
+        <v>25072.554540000001</v>
+      </c>
+      <c r="J8" s="78">
         <v>12460.015520000001</v>
       </c>
-      <c r="K8" s="198">
+      <c r="K8" s="100">
         <f t="shared" si="0"/>
-        <v>19194.377539999998</v>
-      </c>
-      <c r="L8" s="121" t="s">
-        <v>26</v>
+        <v>25072.554540000001</v>
+      </c>
+      <c r="L8" s="104" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="134"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
@@ -9376,34 +9118,34 @@
       <c r="F9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="76">
         <v>19716.219780000003</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="83">
         <v>19795.761879999998</v>
       </c>
-      <c r="I9" s="85">
-        <v>17776.651940828022</v>
-      </c>
-      <c r="J9" s="85">
+      <c r="I9" s="76">
+        <v>32169.619320000005</v>
+      </c>
+      <c r="J9" s="79">
         <v>14757.233319999999</v>
       </c>
-      <c r="K9" s="202">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
-        <v>19795.761879999998</v>
-      </c>
-      <c r="L9" s="127" t="s">
-        <v>26</v>
+        <v>32169.619320000005</v>
+      </c>
+      <c r="L9" s="109" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="132">
+      <c r="A10" s="156">
         <v>2</v>
       </c>
-      <c r="B10" s="129">
+      <c r="B10" s="159">
         <v>4</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="159">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -9415,28 +9157,28 @@
       <c r="F10" s="16">
         <v>30000</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="74">
         <v>2592.0762000000004</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="81">
         <v>2621.5508</v>
       </c>
-      <c r="I10" s="83">
-        <v>2599.4559709787745</v>
-      </c>
-      <c r="J10" s="200"/>
-      <c r="K10" s="71">
+      <c r="I10" s="74">
+        <v>2599.4559400000003</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="66">
         <f>MAX(G10,H10,I10)</f>
         <v>2621.5508</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="133"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
@@ -9446,28 +9188,28 @@
       <c r="F11" s="20">
         <v>60000</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="85">
         <v>1004.8696200000001</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="86">
         <v>1011.1212400000001</v>
       </c>
-      <c r="I11" s="91">
-        <v>1010.5632713878449</v>
-      </c>
-      <c r="J11" s="201"/>
-      <c r="K11" s="110">
+      <c r="I11" s="97">
+        <v>1010.5631999999999</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="98">
         <f>MAX(G11,H11,I11)</f>
         <v>1011.1212400000001</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="L11" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="133"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -9477,28 +9219,28 @@
       <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="87">
         <v>27.202280000000002</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="88">
         <v>27.807439999999996</v>
       </c>
-      <c r="I12" s="94">
-        <v>26.846546645882007</v>
-      </c>
-      <c r="J12" s="201"/>
-      <c r="K12" s="199">
+      <c r="I12" s="93">
+        <v>31.939519999999998</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="140">
         <f>MAX(G12,H12,I12)</f>
-        <v>27.807439999999996</v>
-      </c>
-      <c r="L12" s="128" t="s">
-        <v>26</v>
+        <v>31.939519999999998</v>
+      </c>
+      <c r="L12" s="110" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="133"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
@@ -9508,28 +9250,28 @@
       <c r="F13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G13" s="91">
         <v>0.13818000000000003</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="92">
         <v>0.14929999999999999</v>
       </c>
-      <c r="I13" s="123">
-        <v>0.12849998460811438</v>
-      </c>
-      <c r="J13" s="201"/>
-      <c r="K13" s="124">
+      <c r="I13" s="95">
+        <v>0.29610000000000003</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="106">
         <f>MAX(G13,H13,I13)</f>
-        <v>0.14929999999999999</v>
-      </c>
-      <c r="L13" s="124" t="s">
-        <v>26</v>
+        <v>0.29610000000000003</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="133"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
@@ -9539,28 +9281,28 @@
       <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="89">
         <v>27630.25662</v>
       </c>
-      <c r="H14" s="99">
+      <c r="H14" s="90">
         <v>24802.738359999999</v>
       </c>
-      <c r="I14" s="97">
-        <v>26716.531945677048</v>
-      </c>
-      <c r="J14" s="201"/>
-      <c r="K14" s="126">
+      <c r="I14" s="100">
+        <v>41308.362800000003</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="108">
         <f>MAX(G14,H14,I14)</f>
-        <v>27630.25662</v>
-      </c>
-      <c r="L14" s="126" t="s">
-        <v>15</v>
+        <v>41308.362800000003</v>
+      </c>
+      <c r="L14" s="108" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="133"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
@@ -9570,28 +9312,28 @@
       <c r="F15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="75">
         <v>18582.841560000001</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="82">
         <v>17484.966639999999</v>
       </c>
-      <c r="I15" s="84">
-        <v>17501.654333595365</v>
-      </c>
-      <c r="J15" s="201"/>
-      <c r="K15" s="121">
+      <c r="I15" s="75">
+        <v>25296.46788</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="104">
         <f>MAX(G15,H15,I15)</f>
-        <v>18582.841560000001</v>
-      </c>
-      <c r="L15" s="121" t="s">
-        <v>15</v>
+        <v>25296.46788</v>
+      </c>
+      <c r="L15" s="104" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="134"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
@@ -9601,32 +9343,32 @@
       <c r="F16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="77">
         <v>18726.178940000002</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="84">
         <v>18312.247859999999</v>
       </c>
-      <c r="I16" s="86">
-        <v>17142.710369944907</v>
-      </c>
-      <c r="J16" s="201"/>
-      <c r="K16" s="127">
+      <c r="I16" s="76">
+        <v>33134.738419999994</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="109">
         <f>MAX(G16,H16,I16)</f>
-        <v>18726.178940000002</v>
-      </c>
-      <c r="L16" s="127" t="s">
-        <v>15</v>
+        <v>33134.738419999994</v>
+      </c>
+      <c r="L16" s="109" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="132">
+      <c r="A17" s="156">
         <v>3</v>
       </c>
-      <c r="B17" s="129">
+      <c r="B17" s="159">
         <v>4</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="159">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -9638,28 +9380,28 @@
       <c r="F17" s="26">
         <v>30000</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="65">
         <v>2603.4922799999995</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="66">
         <v>2616.4858399999998</v>
       </c>
-      <c r="I17" s="114">
-        <v>2569.5472715854826</v>
-      </c>
-      <c r="J17" s="201"/>
-      <c r="K17" s="87">
+      <c r="I17" s="74">
+        <v>2569.5472199999999</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="81">
         <f>MAX(G17,H17,I17)</f>
         <v>2616.4858399999998</v>
       </c>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="133"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
@@ -9669,28 +9411,28 @@
       <c r="F18" s="19">
         <v>60000</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="97">
         <v>1001.27232</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="98">
         <v>996.0145399999999</v>
       </c>
-      <c r="I18" s="108">
-        <v>983.96765843443484</v>
-      </c>
-      <c r="J18" s="201"/>
-      <c r="K18" s="110">
+      <c r="I18" s="97">
+        <v>983.96759999999995</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="98">
         <f>MAX(G18,H18,I18)</f>
         <v>1001.27232</v>
       </c>
-      <c r="L18" s="92" t="s">
+      <c r="L18" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="133"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
@@ -9700,28 +9442,28 @@
       <c r="F19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="93">
         <v>28.7104</v>
       </c>
-      <c r="H19" s="104">
+      <c r="H19" s="94">
         <v>27.109400000000001</v>
       </c>
-      <c r="I19" s="102">
-        <v>25.981520610649774</v>
-      </c>
-      <c r="J19" s="201"/>
-      <c r="K19" s="199">
+      <c r="I19" s="93">
+        <v>25.981479999999998</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="140">
         <f>MAX(G19,H19,I19)</f>
         <v>28.7104</v>
       </c>
-      <c r="L19" s="128" t="s">
+      <c r="L19" s="110" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="133"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -9731,28 +9473,28 @@
       <c r="F20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="95">
         <v>1.3044</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="96">
         <v>1.6448199999999997</v>
       </c>
-      <c r="I20" s="105">
-        <v>1.1763397349875517</v>
-      </c>
-      <c r="J20" s="201"/>
-      <c r="K20" s="124">
+      <c r="I20" s="95">
+        <v>1.17628</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="106">
         <f>MAX(G20,H20,I20)</f>
         <v>1.6448199999999997</v>
       </c>
-      <c r="L20" s="124" t="s">
+      <c r="L20" s="106" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="133"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
@@ -9762,28 +9504,28 @@
       <c r="F21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="100">
         <v>26084.911900000003</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="101">
         <v>25513.442480000005</v>
       </c>
-      <c r="I21" s="111">
-        <v>25765.453261159571</v>
-      </c>
-      <c r="J21" s="201"/>
-      <c r="K21" s="126">
+      <c r="I21" s="100">
+        <v>38760.099479999997</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="108">
         <f>MAX(G21,H21,I21)</f>
-        <v>26084.911900000003</v>
-      </c>
-      <c r="L21" s="126" t="s">
-        <v>15</v>
+        <v>38760.099479999997</v>
+      </c>
+      <c r="L21" s="108" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="133"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
@@ -9793,28 +9535,28 @@
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="75">
         <v>17962.934639999999</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="82">
         <v>17848.245940000001</v>
       </c>
-      <c r="I22" s="84">
-        <v>17363.348785112164</v>
-      </c>
-      <c r="J22" s="201"/>
-      <c r="K22" s="121">
+      <c r="I22" s="75">
+        <v>25757.091619999999</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="104">
         <f>MAX(G22,H22,I22)</f>
-        <v>17962.934639999999</v>
-      </c>
-      <c r="L22" s="121" t="s">
-        <v>15</v>
+        <v>25757.091619999999</v>
+      </c>
+      <c r="L22" s="104" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="133"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="5" t="s">
         <v>21</v>
       </c>
@@ -9824,32 +9566,32 @@
       <c r="F23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="76">
         <v>23322.670779999997</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="83">
         <v>24602.740420000002</v>
       </c>
-      <c r="I23" s="85">
-        <v>24478.83976482958</v>
-      </c>
-      <c r="J23" s="201"/>
-      <c r="K23" s="127">
+      <c r="I23" s="77">
+        <v>36497.660239999997</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="109">
         <f>MAX(G23,H23,I23)</f>
-        <v>24602.740420000002</v>
-      </c>
-      <c r="L23" s="127" t="s">
-        <v>26</v>
+        <v>36497.660239999997</v>
+      </c>
+      <c r="L23" s="109" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="132">
+      <c r="A24" s="156">
         <v>4</v>
       </c>
-      <c r="B24" s="129">
+      <c r="B24" s="159">
         <v>2</v>
       </c>
-      <c r="C24" s="144">
+      <c r="C24" s="162">
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -9861,28 +9603,28 @@
       <c r="F24" s="26">
         <v>30000</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="74">
         <v>2624.4959800000001</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="81">
         <v>2567.6521200000002</v>
       </c>
-      <c r="I24" s="83">
-        <v>2616.5519528423574</v>
-      </c>
-      <c r="J24" s="201"/>
-      <c r="K24" s="87">
+      <c r="I24" s="65">
+        <v>2616.5519200000003</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="81">
         <f>MAX(G24,H24,I24)</f>
         <v>2624.4959800000001</v>
       </c>
-      <c r="L24" s="79" t="s">
+      <c r="L24" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="133"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="145"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="28" t="s">
         <v>2</v>
       </c>
@@ -9892,28 +9634,28 @@
       <c r="F25" s="19">
         <v>60000</v>
       </c>
-      <c r="G25" s="109">
+      <c r="G25" s="97">
         <v>1014.1528000000001</v>
       </c>
-      <c r="H25" s="110">
+      <c r="H25" s="98">
         <v>1003.76386</v>
       </c>
-      <c r="I25" s="108">
-        <v>1012.9510965490235</v>
-      </c>
-      <c r="J25" s="201"/>
-      <c r="K25" s="110">
+      <c r="I25" s="97">
+        <v>1014.7709600000001</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="98">
         <f>MAX(G25,H25,I25)</f>
-        <v>1014.1528000000001</v>
-      </c>
-      <c r="L25" s="92" t="s">
+        <v>1014.7709600000001</v>
+      </c>
+      <c r="L25" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="133"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="145"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="29" t="s">
         <v>17</v>
       </c>
@@ -9923,28 +9665,28 @@
       <c r="F26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="93">
         <v>31.128340000000001</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="94">
         <v>25.89434</v>
       </c>
-      <c r="I26" s="102">
-        <v>29.592056476192493</v>
-      </c>
-      <c r="J26" s="201"/>
-      <c r="K26" s="199">
+      <c r="I26" s="93">
+        <v>34.414499999999997</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="140">
         <f>MAX(G26,H26,I26)</f>
-        <v>31.128340000000001</v>
-      </c>
-      <c r="L26" s="128" t="s">
-        <v>15</v>
+        <v>34.414499999999997</v>
+      </c>
+      <c r="L26" s="110" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="133"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="145"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="163"/>
       <c r="D27" s="29" t="s">
         <v>17</v>
       </c>
@@ -9954,28 +9696,28 @@
       <c r="F27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="106">
+      <c r="G27" s="95">
         <v>13.901580000000001</v>
       </c>
-      <c r="H27" s="107">
+      <c r="H27" s="96">
         <v>1.2398800000000001</v>
       </c>
-      <c r="I27" s="105">
-        <v>11.880704310712314</v>
-      </c>
-      <c r="J27" s="201"/>
-      <c r="K27" s="124">
+      <c r="I27" s="95">
+        <v>14.850820000000002</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="106">
         <f>MAX(G27,H27,I27)</f>
-        <v>13.901580000000001</v>
-      </c>
-      <c r="L27" s="124" t="s">
-        <v>15</v>
+        <v>14.850820000000002</v>
+      </c>
+      <c r="L27" s="106" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="133"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="145"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="27" t="s">
         <v>21</v>
       </c>
@@ -9985,28 +9727,28 @@
       <c r="F28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="112">
+      <c r="G28" s="100">
         <v>28398.31064</v>
       </c>
-      <c r="H28" s="113">
+      <c r="H28" s="101">
         <v>28594.861119999998</v>
       </c>
-      <c r="I28" s="111">
-        <v>23447.976716718818</v>
-      </c>
-      <c r="J28" s="201"/>
-      <c r="K28" s="126">
+      <c r="I28" s="100">
+        <v>41439.920339999997</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="108">
         <f>MAX(G28,H28,I28)</f>
-        <v>28594.861119999998</v>
-      </c>
-      <c r="L28" s="126" t="s">
-        <v>26</v>
+        <v>41439.920339999997</v>
+      </c>
+      <c r="L28" s="108" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="133"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="145"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="29" t="s">
         <v>21</v>
       </c>
@@ -10016,28 +9758,28 @@
       <c r="F29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="75">
         <v>25610.720420000001</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="82">
         <v>19598.352859999999</v>
       </c>
-      <c r="I29" s="84">
-        <v>24418.855523516409</v>
-      </c>
-      <c r="J29" s="201"/>
-      <c r="K29" s="121">
+      <c r="I29" s="75">
+        <v>28016.84072</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="104">
         <f>MAX(G29,H29,I29)</f>
-        <v>25610.720420000001</v>
-      </c>
-      <c r="L29" s="121" t="s">
-        <v>15</v>
+        <v>28016.84072</v>
+      </c>
+      <c r="L29" s="104" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="134"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="146"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="28" t="s">
         <v>21</v>
       </c>
@@ -10047,31 +9789,29 @@
       <c r="F30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="77">
         <v>18673.11694</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="84">
         <v>26175.666279999998</v>
       </c>
-      <c r="I30" s="86">
-        <v>24590.321986881459</v>
-      </c>
-      <c r="J30" s="202"/>
-      <c r="K30" s="122">
+      <c r="I30" s="77">
+        <v>36583.925640000001</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="105">
         <f>MAX(G30,H30,I30)</f>
-        <v>26175.666279999998</v>
-      </c>
-      <c r="L30" s="122" t="s">
-        <v>26</v>
+        <v>36583.925640000001</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B17:B23"/>
@@ -10088,9 +9828,11 @@
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
